--- a/Data_frame/balancos_definitivos/ASTA4.xlsx
+++ b/Data_frame/balancos_definitivos/ASTA4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM80"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,45 +586,40 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>31/12/2005</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2005</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>30/06/2006</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2006</t>
+          <t>30/09/2006</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2006</t>
+          <t>31/12/2006</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2006</t>
+          <t>31/03/2007</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2007</t>
+          <t>30/06/2007</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2007</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>30/09/2007</t>
         </is>
@@ -640,13 +635,13 @@
         <v>653547.008</v>
       </c>
       <c r="C2" t="n">
-        <v>17354</v>
+        <v>773620.992</v>
       </c>
       <c r="D2" t="n">
         <v>716886.0159999999</v>
       </c>
       <c r="E2" t="n">
-        <v>24744</v>
+        <v>810979.008</v>
       </c>
       <c r="F2" t="n">
         <v>825014.0159999999</v>
@@ -661,93 +656,90 @@
         <v>713643.008</v>
       </c>
       <c r="J2" t="n">
-        <v>23544</v>
+        <v>758484.992</v>
       </c>
       <c r="K2" t="n">
-        <v>23178</v>
+        <v>863075.968</v>
       </c>
       <c r="L2" t="n">
         <v>803998.0159999999</v>
       </c>
       <c r="M2" t="n">
-        <v>24421</v>
+        <v>821934.976</v>
       </c>
       <c r="N2" t="n">
-        <v>24065</v>
+        <v>854211.008</v>
       </c>
       <c r="O2" t="n">
-        <v>24713</v>
+        <v>915267.008</v>
       </c>
       <c r="P2" t="n">
         <v>794102.976</v>
       </c>
       <c r="Q2" t="n">
-        <v>21706</v>
+        <v>826897.024</v>
       </c>
       <c r="R2" t="n">
-        <v>21466</v>
+        <v>917641.9840000001</v>
       </c>
       <c r="S2" t="n">
-        <v>21086</v>
+        <v>1037630.016</v>
       </c>
       <c r="T2" t="n">
-        <v>35263</v>
+        <v>1058584</v>
       </c>
       <c r="U2" t="n">
-        <v>21059</v>
+        <v>1020275.008</v>
       </c>
       <c r="V2" t="n">
-        <v>21106</v>
+        <v>965174.976</v>
       </c>
       <c r="W2" t="n">
-        <v>21223</v>
+        <v>967107.008</v>
       </c>
       <c r="X2" t="n">
-        <v>37003</v>
+        <v>1000401.984</v>
       </c>
       <c r="Y2" t="n">
-        <v>22817</v>
+        <v>1135828.992</v>
       </c>
       <c r="Z2" t="n">
-        <v>22476</v>
+        <v>1122518.016</v>
       </c>
       <c r="AA2" t="n">
-        <v>15261</v>
+        <v>1070131.008</v>
       </c>
       <c r="AB2" t="n">
         <v>1026265.984</v>
       </c>
       <c r="AC2" t="n">
-        <v>14323</v>
+        <v>1011209.024</v>
       </c>
       <c r="AD2" t="n">
-        <v>14166</v>
+        <v>1004529.984</v>
       </c>
       <c r="AE2" t="n">
-        <v>11731</v>
+        <v>973513.024</v>
       </c>
       <c r="AF2" t="n">
-        <v>13268</v>
+        <v>953278.0159999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>953278.0159999999</v>
+        <v>965188.992</v>
       </c>
       <c r="AH2" t="n">
-        <v>10998</v>
+        <v>994056</v>
       </c>
       <c r="AI2" t="n">
-        <v>10930</v>
+        <v>997532.032</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11765</v>
+        <v>1026816</v>
       </c>
       <c r="AK2" t="n">
-        <v>10910</v>
+        <v>1160100.992</v>
       </c>
       <c r="AL2" t="n">
-        <v>1160100.992</v>
-      </c>
-      <c r="AM2" t="n">
         <v>1157214.976</v>
       </c>
     </row>
@@ -761,13 +753,13 @@
         <v>261288.992</v>
       </c>
       <c r="C3" t="n">
-        <v>4259</v>
+        <v>401116</v>
       </c>
       <c r="D3" t="n">
         <v>350377.984</v>
       </c>
       <c r="E3" t="n">
-        <v>3635</v>
+        <v>395199.008</v>
       </c>
       <c r="F3" t="n">
         <v>411223.008</v>
@@ -782,93 +774,90 @@
         <v>275140</v>
       </c>
       <c r="J3" t="n">
-        <v>1946</v>
+        <v>313732.992</v>
       </c>
       <c r="K3" t="n">
-        <v>1680</v>
+        <v>419659.008</v>
       </c>
       <c r="L3" t="n">
         <v>353937.984</v>
       </c>
       <c r="M3" t="n">
-        <v>2383</v>
+        <v>355062.016</v>
       </c>
       <c r="N3" t="n">
-        <v>2070</v>
+        <v>372684</v>
       </c>
       <c r="O3" t="n">
-        <v>2205</v>
+        <v>401160</v>
       </c>
       <c r="P3" t="n">
         <v>330552.992</v>
       </c>
       <c r="Q3" t="n">
-        <v>4362</v>
+        <v>363752.992</v>
       </c>
       <c r="R3" t="n">
-        <v>1362</v>
+        <v>429131.008</v>
       </c>
       <c r="S3" t="n">
-        <v>1530</v>
+        <v>491212.992</v>
       </c>
       <c r="T3" t="n">
-        <v>2904</v>
+        <v>518721.984</v>
       </c>
       <c r="U3" t="n">
-        <v>1388</v>
+        <v>481163.008</v>
       </c>
       <c r="V3" t="n">
-        <v>1569</v>
+        <v>455540.992</v>
       </c>
       <c r="W3" t="n">
-        <v>1755</v>
+        <v>452289.984</v>
       </c>
       <c r="X3" t="n">
-        <v>3472</v>
+        <v>493107.008</v>
       </c>
       <c r="Y3" t="n">
-        <v>2014</v>
+        <v>585099.008</v>
       </c>
       <c r="Z3" t="n">
-        <v>2019</v>
+        <v>577622.0159999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>2890</v>
+        <v>531600.992</v>
       </c>
       <c r="AB3" t="n">
         <v>471049.984</v>
       </c>
       <c r="AC3" t="n">
-        <v>1482</v>
+        <v>453124.992</v>
       </c>
       <c r="AD3" t="n">
-        <v>1520</v>
+        <v>462244.992</v>
       </c>
       <c r="AE3" t="n">
-        <v>1519</v>
+        <v>412788</v>
       </c>
       <c r="AF3" t="n">
-        <v>2747</v>
+        <v>418000</v>
       </c>
       <c r="AG3" t="n">
-        <v>418000</v>
+        <v>442712.992</v>
       </c>
       <c r="AH3" t="n">
-        <v>1428</v>
+        <v>469374.016</v>
       </c>
       <c r="AI3" t="n">
-        <v>1603</v>
+        <v>444224.992</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2221</v>
+        <v>484024</v>
       </c>
       <c r="AK3" t="n">
-        <v>1902</v>
+        <v>534460.992</v>
       </c>
       <c r="AL3" t="n">
-        <v>534460.992</v>
-      </c>
-      <c r="AM3" t="n">
         <v>485059.008</v>
       </c>
     </row>
@@ -882,13 +871,13 @@
         <v>497</v>
       </c>
       <c r="C4" t="n">
-        <v>590</v>
+        <v>1393</v>
       </c>
       <c r="D4" t="n">
         <v>841</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>479</v>
       </c>
       <c r="F4" t="n">
         <v>975</v>
@@ -903,93 +892,90 @@
         <v>1531</v>
       </c>
       <c r="J4" t="n">
-        <v>117</v>
+        <v>1235</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>2919</v>
       </c>
       <c r="L4" t="n">
         <v>2132</v>
       </c>
       <c r="M4" t="n">
-        <v>291</v>
+        <v>2339</v>
       </c>
       <c r="N4" t="n">
-        <v>38</v>
+        <v>5718</v>
       </c>
       <c r="O4" t="n">
-        <v>95</v>
+        <v>17546</v>
       </c>
       <c r="P4" t="n">
         <v>6452</v>
       </c>
       <c r="Q4" t="n">
-        <v>51</v>
+        <v>8936</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>5184</v>
       </c>
       <c r="S4" t="n">
-        <v>34</v>
+        <v>25735</v>
       </c>
       <c r="T4" t="n">
-        <v>211</v>
+        <v>14424</v>
       </c>
       <c r="U4" t="n">
-        <v>18</v>
+        <v>19658</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>19779</v>
       </c>
       <c r="W4" t="n">
-        <v>101</v>
+        <v>26323</v>
       </c>
       <c r="X4" t="n">
-        <v>516</v>
+        <v>11500</v>
       </c>
       <c r="Y4" t="n">
-        <v>100</v>
+        <v>8254</v>
       </c>
       <c r="Z4" t="n">
-        <v>129</v>
+        <v>19834</v>
       </c>
       <c r="AA4" t="n">
-        <v>624</v>
+        <v>11411</v>
       </c>
       <c r="AB4" t="n">
         <v>12155</v>
       </c>
       <c r="AC4" t="n">
-        <v>78</v>
+        <v>8455</v>
       </c>
       <c r="AD4" t="n">
-        <v>209</v>
+        <v>11694</v>
       </c>
       <c r="AE4" t="n">
-        <v>125</v>
+        <v>10040</v>
       </c>
       <c r="AF4" t="n">
-        <v>309</v>
+        <v>18805</v>
       </c>
       <c r="AG4" t="n">
-        <v>18805</v>
+        <v>11343</v>
       </c>
       <c r="AH4" t="n">
-        <v>121</v>
+        <v>17199</v>
       </c>
       <c r="AI4" t="n">
-        <v>105</v>
+        <v>51602</v>
       </c>
       <c r="AJ4" t="n">
-        <v>223</v>
+        <v>93391</v>
       </c>
       <c r="AK4" t="n">
-        <v>273</v>
+        <v>140748.992</v>
       </c>
       <c r="AL4" t="n">
-        <v>140748.992</v>
-      </c>
-      <c r="AM4" t="n">
         <v>93392</v>
       </c>
     </row>
@@ -1110,9 +1096,6 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1124,13 +1107,13 @@
         <v>119097</v>
       </c>
       <c r="C6" t="n">
-        <v>3518</v>
+        <v>250235.008</v>
       </c>
       <c r="D6" t="n">
         <v>235339.008</v>
       </c>
       <c r="E6" t="n">
-        <v>3520</v>
+        <v>288470.016</v>
       </c>
       <c r="F6" t="n">
         <v>272791.008</v>
@@ -1145,93 +1128,90 @@
         <v>148544.992</v>
       </c>
       <c r="J6" t="n">
-        <v>1763</v>
+        <v>173318</v>
       </c>
       <c r="K6" t="n">
-        <v>1605</v>
+        <v>250250</v>
       </c>
       <c r="L6" t="n">
         <v>209883.008</v>
       </c>
       <c r="M6" t="n">
-        <v>2033</v>
+        <v>195500</v>
       </c>
       <c r="N6" t="n">
-        <v>1988</v>
+        <v>185423.008</v>
       </c>
       <c r="O6" t="n">
-        <v>2076</v>
+        <v>203156</v>
       </c>
       <c r="P6" t="n">
         <v>197008</v>
       </c>
       <c r="Q6" t="n">
-        <v>4259</v>
+        <v>185616</v>
       </c>
       <c r="R6" t="n">
-        <v>1322</v>
+        <v>234280.992</v>
       </c>
       <c r="S6" t="n">
-        <v>1457</v>
+        <v>298753.984</v>
       </c>
       <c r="T6" t="n">
-        <v>2657</v>
+        <v>327996</v>
       </c>
       <c r="U6" t="n">
-        <v>1326</v>
+        <v>221687.008</v>
       </c>
       <c r="V6" t="n">
-        <v>1509</v>
+        <v>205548</v>
       </c>
       <c r="W6" t="n">
-        <v>1612</v>
+        <v>205115.008</v>
       </c>
       <c r="X6" t="n">
-        <v>2915</v>
+        <v>270755.008</v>
       </c>
       <c r="Y6" t="n">
-        <v>1878</v>
+        <v>263406</v>
       </c>
       <c r="Z6" t="n">
-        <v>1847</v>
+        <v>280995.008</v>
       </c>
       <c r="AA6" t="n">
-        <v>2197</v>
+        <v>270241.984</v>
       </c>
       <c r="AB6" t="n">
         <v>251182</v>
       </c>
       <c r="AC6" t="n">
-        <v>1399</v>
+        <v>238963.008</v>
       </c>
       <c r="AD6" t="n">
-        <v>1307</v>
+        <v>255474</v>
       </c>
       <c r="AE6" t="n">
-        <v>1394</v>
+        <v>212100</v>
       </c>
       <c r="AF6" t="n">
-        <v>2438</v>
+        <v>204050</v>
       </c>
       <c r="AG6" t="n">
-        <v>204050</v>
+        <v>230035.008</v>
       </c>
       <c r="AH6" t="n">
-        <v>1307</v>
+        <v>241744</v>
       </c>
       <c r="AI6" t="n">
-        <v>1498</v>
+        <v>204166</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1998</v>
+        <v>203828.992</v>
       </c>
       <c r="AK6" t="n">
-        <v>1629</v>
+        <v>219866</v>
       </c>
       <c r="AL6" t="n">
-        <v>219866</v>
-      </c>
-      <c r="AM6" t="n">
         <v>222948.992</v>
       </c>
     </row>
@@ -1245,13 +1225,13 @@
         <v>140892</v>
       </c>
       <c r="C7" t="n">
-        <v>151</v>
+        <v>147984</v>
       </c>
       <c r="D7" t="n">
         <v>113381</v>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>105301</v>
       </c>
       <c r="F7" t="n">
         <v>135656.992</v>
@@ -1266,93 +1246,90 @@
         <v>124152</v>
       </c>
       <c r="J7" t="n">
-        <v>66</v>
+        <v>137696</v>
       </c>
       <c r="K7" t="n">
-        <v>70</v>
+        <v>165272.992</v>
       </c>
       <c r="L7" t="n">
         <v>141076.992</v>
       </c>
       <c r="M7" t="n">
-        <v>59</v>
+        <v>156531.008</v>
       </c>
       <c r="N7" t="n">
-        <v>44</v>
+        <v>179316.992</v>
       </c>
       <c r="O7" t="n">
-        <v>34</v>
+        <v>178028.992</v>
       </c>
       <c r="P7" t="n">
         <v>126371</v>
       </c>
       <c r="Q7" t="n">
-        <v>52</v>
+        <v>168488</v>
       </c>
       <c r="R7" t="n">
-        <v>38</v>
+        <v>187158</v>
       </c>
       <c r="S7" t="n">
-        <v>39</v>
+        <v>159866</v>
       </c>
       <c r="T7" t="n">
-        <v>36</v>
+        <v>170695.008</v>
       </c>
       <c r="U7" t="n">
-        <v>44</v>
+        <v>234275.008</v>
       </c>
       <c r="V7" t="n">
-        <v>45</v>
+        <v>222639.008</v>
       </c>
       <c r="W7" t="n">
-        <v>42</v>
+        <v>214378</v>
       </c>
       <c r="X7" t="n">
-        <v>41</v>
+        <v>203942</v>
       </c>
       <c r="Y7" t="n">
-        <v>36</v>
+        <v>305488.992</v>
       </c>
       <c r="Z7" t="n">
-        <v>43</v>
+        <v>270160.992</v>
       </c>
       <c r="AA7" t="n">
-        <v>69</v>
+        <v>242328.992</v>
       </c>
       <c r="AB7" t="n">
         <v>202127.008</v>
       </c>
       <c r="AC7" t="n">
-        <v>5</v>
+        <v>199548.992</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>188716.992</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>184182</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>189447.008</v>
       </c>
       <c r="AG7" t="n">
-        <v>189447.008</v>
+        <v>197298</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>207298</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>184227.008</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>182358</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>170068.992</v>
       </c>
       <c r="AL7" t="n">
-        <v>170068.992</v>
-      </c>
-      <c r="AM7" t="n">
         <v>165818</v>
       </c>
     </row>
@@ -1473,9 +1450,6 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1594,9 +1568,6 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1715,9 +1686,6 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1729,13 +1697,13 @@
         <v>803</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1504</v>
       </c>
       <c r="D11" t="n">
         <v>817</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="F11" t="n">
         <v>1800</v>
@@ -1750,93 +1718,90 @@
         <v>912</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1484</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="L11" t="n">
         <v>846</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2226</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2429</v>
       </c>
       <c r="P11" t="n">
         <v>722</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2508</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6858</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5607</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>5543</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7575</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6474</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6910</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7950</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>6632</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>7619</v>
       </c>
       <c r="AB11" t="n">
         <v>5586</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>6158</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>6360</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>6466</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>5698</v>
       </c>
       <c r="AG11" t="n">
-        <v>5698</v>
+        <v>4037</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3133</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>4230</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>4446</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>3777</v>
       </c>
       <c r="AL11" t="n">
-        <v>3777</v>
-      </c>
-      <c r="AM11" t="n">
         <v>2900</v>
       </c>
     </row>
@@ -1850,13 +1815,13 @@
         <v>21131</v>
       </c>
       <c r="C12" t="n">
-        <v>1527</v>
+        <v>13695</v>
       </c>
       <c r="D12" t="n">
         <v>13902</v>
       </c>
       <c r="E12" t="n">
-        <v>1550</v>
+        <v>35145</v>
       </c>
       <c r="F12" t="n">
         <v>36660</v>
@@ -1871,93 +1836,90 @@
         <v>30304</v>
       </c>
       <c r="J12" t="n">
-        <v>1279</v>
+        <v>35748</v>
       </c>
       <c r="K12" t="n">
-        <v>1283</v>
+        <v>38394</v>
       </c>
       <c r="L12" t="n">
         <v>42811</v>
       </c>
       <c r="M12" t="n">
-        <v>1598</v>
+        <v>44201</v>
       </c>
       <c r="N12" t="n">
-        <v>1563</v>
+        <v>41263</v>
       </c>
       <c r="O12" t="n">
-        <v>1563</v>
+        <v>41338</v>
       </c>
       <c r="P12" t="n">
         <v>34051</v>
       </c>
       <c r="Q12" t="n">
-        <v>3313</v>
+        <v>30000</v>
       </c>
       <c r="R12" t="n">
-        <v>1973</v>
+        <v>29655</v>
       </c>
       <c r="S12" t="n">
-        <v>1645</v>
+        <v>43543</v>
       </c>
       <c r="T12" t="n">
-        <v>9008</v>
+        <v>40174</v>
       </c>
       <c r="U12" t="n">
-        <v>1932</v>
+        <v>39326</v>
       </c>
       <c r="V12" t="n">
-        <v>1935</v>
+        <v>34930</v>
       </c>
       <c r="W12" t="n">
-        <v>1935</v>
+        <v>39153</v>
       </c>
       <c r="X12" t="n">
-        <v>11059</v>
+        <v>35401</v>
       </c>
       <c r="Y12" t="n">
-        <v>3755</v>
+        <v>41092</v>
       </c>
       <c r="Z12" t="n">
-        <v>3755</v>
+        <v>38499</v>
       </c>
       <c r="AA12" t="n">
-        <v>3793</v>
+        <v>39013</v>
       </c>
       <c r="AB12" t="n">
         <v>41754</v>
       </c>
       <c r="AC12" t="n">
-        <v>573</v>
+        <v>43234</v>
       </c>
       <c r="AD12" t="n">
-        <v>573</v>
+        <v>39742</v>
       </c>
       <c r="AE12" t="n">
-        <v>575</v>
+        <v>55555</v>
       </c>
       <c r="AF12" t="n">
-        <v>1468</v>
+        <v>56041</v>
       </c>
       <c r="AG12" t="n">
-        <v>56041</v>
+        <v>58069</v>
       </c>
       <c r="AH12" t="n">
-        <v>576</v>
+        <v>60607</v>
       </c>
       <c r="AI12" t="n">
-        <v>367</v>
+        <v>82748</v>
       </c>
       <c r="AJ12" t="n">
-        <v>859</v>
+        <v>81012</v>
       </c>
       <c r="AK12" t="n">
-        <v>348</v>
+        <v>174046</v>
       </c>
       <c r="AL12" t="n">
-        <v>174046</v>
-      </c>
-      <c r="AM12" t="n">
         <v>230898</v>
       </c>
     </row>
@@ -2078,9 +2040,6 @@
       <c r="AL13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2199,9 +2158,6 @@
       <c r="AL14" t="n">
         <v>0</v>
       </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2213,13 +2169,13 @@
         <v>21131</v>
       </c>
       <c r="C15" t="n">
-        <v>965</v>
+        <v>13695</v>
       </c>
       <c r="D15" t="n">
         <v>13902</v>
       </c>
       <c r="E15" t="n">
-        <v>956</v>
+        <v>15195</v>
       </c>
       <c r="F15" t="n">
         <v>16747</v>
@@ -2234,93 +2190,90 @@
         <v>17799</v>
       </c>
       <c r="J15" t="n">
-        <v>956</v>
+        <v>21641</v>
       </c>
       <c r="K15" t="n">
-        <v>956</v>
+        <v>23424</v>
       </c>
       <c r="L15" t="n">
         <v>30982</v>
       </c>
       <c r="M15" t="n">
-        <v>1265</v>
+        <v>32940</v>
       </c>
       <c r="N15" t="n">
-        <v>1265</v>
+        <v>28737</v>
       </c>
       <c r="O15" t="n">
-        <v>1265</v>
+        <v>25590</v>
       </c>
       <c r="P15" t="n">
         <v>21873</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602</v>
+        <v>19530</v>
       </c>
       <c r="R15" t="n">
-        <v>1602</v>
+        <v>18115</v>
       </c>
       <c r="S15" t="n">
-        <v>1272</v>
+        <v>19978</v>
       </c>
       <c r="T15" t="n">
-        <v>8545</v>
+        <v>18086</v>
       </c>
       <c r="U15" t="n">
-        <v>1551</v>
+        <v>17859</v>
       </c>
       <c r="V15" t="n">
-        <v>1551</v>
+        <v>10620</v>
       </c>
       <c r="W15" t="n">
-        <v>1551</v>
+        <v>9723</v>
       </c>
       <c r="X15" t="n">
-        <v>10417</v>
+        <v>9317</v>
       </c>
       <c r="Y15" t="n">
-        <v>3231</v>
+        <v>11869</v>
       </c>
       <c r="Z15" t="n">
-        <v>3231</v>
+        <v>11731</v>
       </c>
       <c r="AA15" t="n">
-        <v>3231</v>
+        <v>11753</v>
       </c>
       <c r="AB15" t="n">
         <v>11941</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>10940</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>10038</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>10051</v>
       </c>
       <c r="AF15" t="n">
-        <v>832</v>
+        <v>10625</v>
       </c>
       <c r="AG15" t="n">
-        <v>10625</v>
+        <v>11965</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>11368</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>26400</v>
       </c>
       <c r="AJ15" t="n">
-        <v>859</v>
+        <v>25646</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>23304</v>
       </c>
       <c r="AL15" t="n">
-        <v>23304</v>
-      </c>
-      <c r="AM15" t="n">
         <v>25485</v>
       </c>
     </row>
@@ -2441,9 +2394,6 @@
       <c r="AL16" t="n">
         <v>0</v>
       </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2562,9 +2512,6 @@
       <c r="AL17" t="n">
         <v>0</v>
       </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2683,9 +2630,6 @@
       <c r="AL18" t="n">
         <v>0</v>
       </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2804,9 +2748,6 @@
       <c r="AL19" t="n">
         <v>0</v>
       </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2860,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1340</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2920,12 +2861,9 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>97117</v>
       </c>
       <c r="AL20" t="n">
-        <v>97117</v>
-      </c>
-      <c r="AM20" t="n">
         <v>150719.008</v>
       </c>
     </row>
@@ -2939,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>594</v>
+        <v>19950</v>
       </c>
       <c r="F21" t="n">
         <v>19913</v>
@@ -2960,93 +2898,90 @@
         <v>12505</v>
       </c>
       <c r="J21" t="n">
-        <v>323</v>
+        <v>14107</v>
       </c>
       <c r="K21" t="n">
-        <v>327</v>
+        <v>14970</v>
       </c>
       <c r="L21" t="n">
         <v>11829</v>
       </c>
       <c r="M21" t="n">
-        <v>333</v>
+        <v>11261</v>
       </c>
       <c r="N21" t="n">
-        <v>298</v>
+        <v>12526</v>
       </c>
       <c r="O21" t="n">
-        <v>298</v>
+        <v>15748</v>
       </c>
       <c r="P21" t="n">
         <v>12178</v>
       </c>
       <c r="Q21" t="n">
-        <v>371</v>
+        <v>10470</v>
       </c>
       <c r="R21" t="n">
-        <v>371</v>
+        <v>11540</v>
       </c>
       <c r="S21" t="n">
-        <v>373</v>
+        <v>23565</v>
       </c>
       <c r="T21" t="n">
-        <v>463</v>
+        <v>22088</v>
       </c>
       <c r="U21" t="n">
-        <v>381</v>
+        <v>21467</v>
       </c>
       <c r="V21" t="n">
-        <v>384</v>
+        <v>24310</v>
       </c>
       <c r="W21" t="n">
-        <v>384</v>
+        <v>29430</v>
       </c>
       <c r="X21" t="n">
-        <v>642</v>
+        <v>26084</v>
       </c>
       <c r="Y21" t="n">
-        <v>524</v>
+        <v>29223</v>
       </c>
       <c r="Z21" t="n">
-        <v>524</v>
+        <v>26768</v>
       </c>
       <c r="AA21" t="n">
-        <v>562</v>
+        <v>27260</v>
       </c>
       <c r="AB21" t="n">
         <v>29813</v>
       </c>
       <c r="AC21" t="n">
-        <v>573</v>
+        <v>32294</v>
       </c>
       <c r="AD21" t="n">
-        <v>573</v>
+        <v>29704</v>
       </c>
       <c r="AE21" t="n">
-        <v>575</v>
+        <v>45504</v>
       </c>
       <c r="AF21" t="n">
-        <v>636</v>
+        <v>45416</v>
       </c>
       <c r="AG21" t="n">
-        <v>45416</v>
+        <v>46104</v>
       </c>
       <c r="AH21" t="n">
-        <v>576</v>
+        <v>49239</v>
       </c>
       <c r="AI21" t="n">
-        <v>367</v>
+        <v>56348</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>55366</v>
       </c>
       <c r="AK21" t="n">
-        <v>348</v>
+        <v>53625</v>
       </c>
       <c r="AL21" t="n">
-        <v>53625</v>
-      </c>
-      <c r="AM21" t="n">
         <v>54694</v>
       </c>
     </row>
@@ -3060,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5473</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5167</v>
+        <v>10353</v>
       </c>
       <c r="F22" t="n">
         <v>9644</v>
@@ -3081,70 +3016,70 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6392</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>6328</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>6340</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6207</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>6145</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>889</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5089</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4979</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>5039</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5030</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>5081</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4858</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>4632</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>4435</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>2683</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>2545</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -3153,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
         <v>0</v>
@@ -3165,9 +3100,6 @@
         <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3181,13 +3113,13 @@
         <v>370020.992</v>
       </c>
       <c r="C23" t="n">
-        <v>5761</v>
+        <v>357182.016</v>
       </c>
       <c r="D23" t="n">
         <v>350902.016</v>
       </c>
       <c r="E23" t="n">
-        <v>13634</v>
+        <v>368841.984</v>
       </c>
       <c r="F23" t="n">
         <v>365788</v>
@@ -3202,93 +3134,90 @@
         <v>405959.008</v>
       </c>
       <c r="J23" t="n">
-        <v>13421</v>
+        <v>407113.984</v>
       </c>
       <c r="K23" t="n">
-        <v>13425</v>
+        <v>403369.984</v>
       </c>
       <c r="L23" t="n">
         <v>405664</v>
       </c>
       <c r="M23" t="n">
-        <v>13378</v>
+        <v>421256</v>
       </c>
       <c r="N23" t="n">
-        <v>13284</v>
+        <v>439128</v>
       </c>
       <c r="O23" t="n">
-        <v>13218</v>
+        <v>471734.016</v>
       </c>
       <c r="P23" t="n">
         <v>427148.992</v>
       </c>
       <c r="Q23" t="n">
-        <v>13040</v>
+        <v>431457.984</v>
       </c>
       <c r="R23" t="n">
-        <v>12950</v>
+        <v>457948</v>
       </c>
       <c r="S23" t="n">
-        <v>12851</v>
+        <v>502112</v>
       </c>
       <c r="T23" t="n">
-        <v>23269</v>
+        <v>499660.992</v>
       </c>
       <c r="U23" t="n">
-        <v>12641</v>
+        <v>499742.016</v>
       </c>
       <c r="V23" t="n">
-        <v>12523</v>
+        <v>474678.016</v>
       </c>
       <c r="W23" t="n">
-        <v>12414</v>
+        <v>475652</v>
       </c>
       <c r="X23" t="n">
-        <v>22460</v>
+        <v>471892.992</v>
       </c>
       <c r="Y23" t="n">
-        <v>12190</v>
+        <v>509636.992</v>
       </c>
       <c r="Z23" t="n">
-        <v>12070</v>
+        <v>506396.992</v>
       </c>
       <c r="AA23" t="n">
-        <v>4143</v>
+        <v>499516.992</v>
       </c>
       <c r="AB23" t="n">
         <v>513462.016</v>
       </c>
       <c r="AC23" t="n">
-        <v>9585</v>
+        <v>514849.984</v>
       </c>
       <c r="AD23" t="n">
-        <v>9528</v>
+        <v>502528</v>
       </c>
       <c r="AE23" t="n">
-        <v>9075</v>
+        <v>505169.984</v>
       </c>
       <c r="AF23" t="n">
-        <v>9053</v>
+        <v>479236.992</v>
       </c>
       <c r="AG23" t="n">
-        <v>479236.992</v>
+        <v>464407.008</v>
       </c>
       <c r="AH23" t="n">
-        <v>8802</v>
+        <v>464075.008</v>
       </c>
       <c r="AI23" t="n">
-        <v>8759</v>
+        <v>461100.992</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8616</v>
+        <v>452572</v>
       </c>
       <c r="AK23" t="n">
-        <v>8591</v>
+        <v>443295.008</v>
       </c>
       <c r="AL23" t="n">
-        <v>443295.008</v>
-      </c>
-      <c r="AM23" t="n">
         <v>433584.992</v>
       </c>
     </row>
@@ -3398,18 +3327,15 @@
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>9458</v>
       </c>
       <c r="AJ24" t="n">
-        <v>69</v>
+        <v>9208</v>
       </c>
       <c r="AK24" t="n">
-        <v>69</v>
+        <v>8299</v>
       </c>
       <c r="AL24" t="n">
-        <v>8299</v>
-      </c>
-      <c r="AM24" t="n">
         <v>7673</v>
       </c>
     </row>
@@ -3423,13 +3349,13 @@
         <v>1106</v>
       </c>
       <c r="C25" t="n">
-        <v>334</v>
+        <v>1628</v>
       </c>
       <c r="D25" t="n">
         <v>1704</v>
       </c>
       <c r="E25" t="n">
-        <v>758</v>
+        <v>1440</v>
       </c>
       <c r="F25" t="n">
         <v>1699</v>
@@ -3444,49 +3370,49 @@
         <v>2240</v>
       </c>
       <c r="J25" t="n">
-        <v>506</v>
+        <v>1890</v>
       </c>
       <c r="K25" t="n">
-        <v>462</v>
+        <v>1653</v>
       </c>
       <c r="L25" t="n">
         <v>1585</v>
       </c>
       <c r="M25" t="n">
-        <v>722</v>
+        <v>1416</v>
       </c>
       <c r="N25" t="n">
-        <v>941</v>
+        <v>1136</v>
       </c>
       <c r="O25" t="n">
-        <v>1582</v>
+        <v>1035</v>
       </c>
       <c r="P25" t="n">
         <v>2350</v>
       </c>
       <c r="Q25" t="n">
-        <v>102</v>
+        <v>1686</v>
       </c>
       <c r="R25" t="n">
-        <v>92</v>
+        <v>908</v>
       </c>
       <c r="S25" t="n">
-        <v>81</v>
+        <v>762</v>
       </c>
       <c r="T25" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="U25" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="V25" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="W25" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -3528,9 +3454,6 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3544,13 +3467,13 @@
         <v>653547.008</v>
       </c>
       <c r="C26" t="n">
-        <v>17354</v>
+        <v>773620.992</v>
       </c>
       <c r="D26" t="n">
         <v>716886.0159999999</v>
       </c>
       <c r="E26" t="n">
-        <v>24744</v>
+        <v>810979.008</v>
       </c>
       <c r="F26" t="n">
         <v>825014.0159999999</v>
@@ -3565,93 +3488,90 @@
         <v>713643.008</v>
       </c>
       <c r="J26" t="n">
-        <v>23544</v>
+        <v>758484.992</v>
       </c>
       <c r="K26" t="n">
-        <v>23178</v>
+        <v>863075.968</v>
       </c>
       <c r="L26" t="n">
         <v>803998.0159999999</v>
       </c>
       <c r="M26" t="n">
-        <v>24421</v>
+        <v>821934.976</v>
       </c>
       <c r="N26" t="n">
-        <v>24065</v>
+        <v>854211.008</v>
       </c>
       <c r="O26" t="n">
-        <v>24713</v>
+        <v>915267.008</v>
       </c>
       <c r="P26" t="n">
         <v>794102.976</v>
       </c>
       <c r="Q26" t="n">
-        <v>21706</v>
+        <v>826897.024</v>
       </c>
       <c r="R26" t="n">
-        <v>21466</v>
+        <v>917641.9840000001</v>
       </c>
       <c r="S26" t="n">
-        <v>21086</v>
+        <v>1037630.016</v>
       </c>
       <c r="T26" t="n">
-        <v>35263</v>
+        <v>1058584</v>
       </c>
       <c r="U26" t="n">
-        <v>21059</v>
+        <v>1020275.008</v>
       </c>
       <c r="V26" t="n">
-        <v>21106</v>
+        <v>965174.976</v>
       </c>
       <c r="W26" t="n">
-        <v>21223</v>
+        <v>967107.008</v>
       </c>
       <c r="X26" t="n">
-        <v>37003</v>
+        <v>1000401.984</v>
       </c>
       <c r="Y26" t="n">
-        <v>22817</v>
+        <v>1135828.992</v>
       </c>
       <c r="Z26" t="n">
-        <v>22476</v>
+        <v>1122518.016</v>
       </c>
       <c r="AA26" t="n">
-        <v>15261</v>
+        <v>1070131.008</v>
       </c>
       <c r="AB26" t="n">
         <v>1026265.984</v>
       </c>
       <c r="AC26" t="n">
-        <v>14323</v>
+        <v>1011209.024</v>
       </c>
       <c r="AD26" t="n">
-        <v>14166</v>
+        <v>1004529.984</v>
       </c>
       <c r="AE26" t="n">
-        <v>11731</v>
+        <v>973513.024</v>
       </c>
       <c r="AF26" t="n">
-        <v>13268</v>
+        <v>953278.0159999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>953278.0159999999</v>
+        <v>965188.992</v>
       </c>
       <c r="AH26" t="n">
-        <v>10998</v>
+        <v>994056</v>
       </c>
       <c r="AI26" t="n">
-        <v>10930</v>
+        <v>997532.032</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11765</v>
+        <v>1026816</v>
       </c>
       <c r="AK26" t="n">
-        <v>10910</v>
+        <v>1160100.992</v>
       </c>
       <c r="AL26" t="n">
-        <v>1160100.992</v>
-      </c>
-      <c r="AM26" t="n">
         <v>1157214.976</v>
       </c>
     </row>
@@ -3665,13 +3585,13 @@
         <v>195280.992</v>
       </c>
       <c r="C27" t="n">
-        <v>2420</v>
+        <v>269756.992</v>
       </c>
       <c r="D27" t="n">
         <v>230536.992</v>
       </c>
       <c r="E27" t="n">
-        <v>1984</v>
+        <v>283939.008</v>
       </c>
       <c r="F27" t="n">
         <v>318436</v>
@@ -3686,93 +3606,90 @@
         <v>236446</v>
       </c>
       <c r="J27" t="n">
-        <v>3326</v>
+        <v>261820</v>
       </c>
       <c r="K27" t="n">
-        <v>3549</v>
+        <v>337872</v>
       </c>
       <c r="L27" t="n">
         <v>288868.992</v>
       </c>
       <c r="M27" t="n">
-        <v>4916</v>
+        <v>278883.008</v>
       </c>
       <c r="N27" t="n">
-        <v>5550</v>
+        <v>337548</v>
       </c>
       <c r="O27" t="n">
-        <v>6853</v>
+        <v>346177.984</v>
       </c>
       <c r="P27" t="n">
         <v>298425.984</v>
       </c>
       <c r="Q27" t="n">
-        <v>3855</v>
+        <v>324223.008</v>
       </c>
       <c r="R27" t="n">
-        <v>4525</v>
+        <v>336086.016</v>
       </c>
       <c r="S27" t="n">
-        <v>5776</v>
+        <v>388238.016</v>
       </c>
       <c r="T27" t="n">
-        <v>6104</v>
+        <v>416624.992</v>
       </c>
       <c r="U27" t="n">
-        <v>5811</v>
+        <v>368751.008</v>
       </c>
       <c r="V27" t="n">
-        <v>5661</v>
+        <v>356852.992</v>
       </c>
       <c r="W27" t="n">
-        <v>5875</v>
+        <v>303891.008</v>
       </c>
       <c r="X27" t="n">
-        <v>7722</v>
+        <v>323679.008</v>
       </c>
       <c r="Y27" t="n">
-        <v>7335</v>
+        <v>358747.008</v>
       </c>
       <c r="Z27" t="n">
-        <v>8599</v>
+        <v>344563.008</v>
       </c>
       <c r="AA27" t="n">
-        <v>7039</v>
+        <v>339737.984</v>
       </c>
       <c r="AB27" t="n">
         <v>341862.016</v>
       </c>
       <c r="AC27" t="n">
-        <v>8685</v>
+        <v>315523.008</v>
       </c>
       <c r="AD27" t="n">
-        <v>9683</v>
+        <v>321681.984</v>
       </c>
       <c r="AE27" t="n">
-        <v>9184</v>
+        <v>252342</v>
       </c>
       <c r="AF27" t="n">
-        <v>9781</v>
+        <v>255699.008</v>
       </c>
       <c r="AG27" t="n">
-        <v>255699.008</v>
+        <v>246458</v>
       </c>
       <c r="AH27" t="n">
-        <v>9719</v>
+        <v>259582</v>
       </c>
       <c r="AI27" t="n">
-        <v>8898</v>
+        <v>243183.008</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8688</v>
+        <v>253876</v>
       </c>
       <c r="AK27" t="n">
-        <v>9194</v>
+        <v>252574</v>
       </c>
       <c r="AL27" t="n">
-        <v>252574</v>
-      </c>
-      <c r="AM27" t="n">
         <v>283856.992</v>
       </c>
     </row>
@@ -3893,9 +3810,6 @@
       <c r="AL28" t="n">
         <v>0</v>
       </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3907,13 +3821,13 @@
         <v>39289</v>
       </c>
       <c r="C29" t="n">
-        <v>297</v>
+        <v>56068</v>
       </c>
       <c r="D29" t="n">
         <v>53464</v>
       </c>
       <c r="E29" t="n">
-        <v>214</v>
+        <v>52655</v>
       </c>
       <c r="F29" t="n">
         <v>54078</v>
@@ -3928,93 +3842,90 @@
         <v>29405</v>
       </c>
       <c r="J29" t="n">
-        <v>211</v>
+        <v>43999</v>
       </c>
       <c r="K29" t="n">
-        <v>259</v>
+        <v>45898</v>
       </c>
       <c r="L29" t="n">
         <v>34209</v>
       </c>
       <c r="M29" t="n">
-        <v>345</v>
+        <v>35722</v>
       </c>
       <c r="N29" t="n">
-        <v>464</v>
+        <v>45039</v>
       </c>
       <c r="O29" t="n">
-        <v>525</v>
+        <v>46710</v>
       </c>
       <c r="P29" t="n">
         <v>34037</v>
       </c>
       <c r="Q29" t="n">
-        <v>584</v>
+        <v>27682</v>
       </c>
       <c r="R29" t="n">
-        <v>545</v>
+        <v>31994</v>
       </c>
       <c r="S29" t="n">
-        <v>461</v>
+        <v>32954</v>
       </c>
       <c r="T29" t="n">
-        <v>781</v>
+        <v>25826</v>
       </c>
       <c r="U29" t="n">
-        <v>620</v>
+        <v>61892</v>
       </c>
       <c r="V29" t="n">
-        <v>631</v>
+        <v>61388</v>
       </c>
       <c r="W29" t="n">
-        <v>711</v>
+        <v>53441</v>
       </c>
       <c r="X29" t="n">
-        <v>898</v>
+        <v>26584</v>
       </c>
       <c r="Y29" t="n">
-        <v>900</v>
+        <v>26718</v>
       </c>
       <c r="Z29" t="n">
-        <v>1174</v>
+        <v>31162</v>
       </c>
       <c r="AA29" t="n">
-        <v>944</v>
+        <v>35817</v>
       </c>
       <c r="AB29" t="n">
         <v>22697</v>
       </c>
       <c r="AC29" t="n">
-        <v>1402</v>
+        <v>32817</v>
       </c>
       <c r="AD29" t="n">
-        <v>1596</v>
+        <v>33694</v>
       </c>
       <c r="AE29" t="n">
-        <v>566</v>
+        <v>31533</v>
       </c>
       <c r="AF29" t="n">
-        <v>834</v>
+        <v>28651</v>
       </c>
       <c r="AG29" t="n">
-        <v>28651</v>
+        <v>22810</v>
       </c>
       <c r="AH29" t="n">
-        <v>443</v>
+        <v>32701</v>
       </c>
       <c r="AI29" t="n">
-        <v>576</v>
+        <v>41466</v>
       </c>
       <c r="AJ29" t="n">
-        <v>446</v>
+        <v>25548</v>
       </c>
       <c r="AK29" t="n">
-        <v>444</v>
+        <v>29932</v>
       </c>
       <c r="AL29" t="n">
-        <v>29932</v>
-      </c>
-      <c r="AM29" t="n">
         <v>34232</v>
       </c>
     </row>
@@ -4028,13 +3939,13 @@
         <v>2093</v>
       </c>
       <c r="C30" t="n">
-        <v>889</v>
+        <v>3092</v>
       </c>
       <c r="D30" t="n">
         <v>2248</v>
       </c>
       <c r="E30" t="n">
-        <v>472</v>
+        <v>3682</v>
       </c>
       <c r="F30" t="n">
         <v>2543</v>
@@ -4049,93 +3960,90 @@
         <v>7402</v>
       </c>
       <c r="J30" t="n">
-        <v>798</v>
+        <v>5811</v>
       </c>
       <c r="K30" t="n">
-        <v>986</v>
+        <v>9848</v>
       </c>
       <c r="L30" t="n">
         <v>8094</v>
       </c>
       <c r="M30" t="n">
-        <v>1036</v>
+        <v>10360</v>
       </c>
       <c r="N30" t="n">
-        <v>1328</v>
+        <v>12615</v>
       </c>
       <c r="O30" t="n">
-        <v>1631</v>
+        <v>14623</v>
       </c>
       <c r="P30" t="n">
         <v>12977</v>
       </c>
       <c r="Q30" t="n">
-        <v>700</v>
+        <v>18203</v>
       </c>
       <c r="R30" t="n">
-        <v>855</v>
+        <v>19837</v>
       </c>
       <c r="S30" t="n">
-        <v>1021</v>
+        <v>29062</v>
       </c>
       <c r="T30" t="n">
-        <v>700</v>
+        <v>30608</v>
       </c>
       <c r="U30" t="n">
-        <v>854</v>
+        <v>42151</v>
       </c>
       <c r="V30" t="n">
-        <v>742</v>
+        <v>43009</v>
       </c>
       <c r="W30" t="n">
-        <v>396</v>
+        <v>49863</v>
       </c>
       <c r="X30" t="n">
-        <v>596</v>
+        <v>55061</v>
       </c>
       <c r="Y30" t="n">
-        <v>560</v>
+        <v>73529</v>
       </c>
       <c r="Z30" t="n">
-        <v>763</v>
+        <v>61026</v>
       </c>
       <c r="AA30" t="n">
-        <v>909</v>
+        <v>61889</v>
       </c>
       <c r="AB30" t="n">
         <v>66128</v>
       </c>
       <c r="AC30" t="n">
-        <v>1191</v>
+        <v>69162</v>
       </c>
       <c r="AD30" t="n">
-        <v>1028</v>
+        <v>77723</v>
       </c>
       <c r="AE30" t="n">
-        <v>777</v>
+        <v>66372</v>
       </c>
       <c r="AF30" t="n">
-        <v>956</v>
+        <v>69585</v>
       </c>
       <c r="AG30" t="n">
-        <v>69585</v>
+        <v>61916</v>
       </c>
       <c r="AH30" t="n">
-        <v>1186</v>
+        <v>63160</v>
       </c>
       <c r="AI30" t="n">
-        <v>1095</v>
+        <v>62586</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1677</v>
+        <v>66316</v>
       </c>
       <c r="AK30" t="n">
-        <v>1683</v>
+        <v>62025</v>
       </c>
       <c r="AL30" t="n">
-        <v>62025</v>
-      </c>
-      <c r="AM30" t="n">
         <v>66097</v>
       </c>
     </row>
@@ -4149,13 +4057,13 @@
         <v>130081</v>
       </c>
       <c r="C31" t="n">
-        <v>151</v>
+        <v>185240</v>
       </c>
       <c r="D31" t="n">
         <v>149584</v>
       </c>
       <c r="E31" t="n">
-        <v>486</v>
+        <v>199759.008</v>
       </c>
       <c r="F31" t="n">
         <v>232136</v>
@@ -4170,93 +4078,90 @@
         <v>166612</v>
       </c>
       <c r="J31" t="n">
-        <v>1345</v>
+        <v>177990</v>
       </c>
       <c r="K31" t="n">
-        <v>1166</v>
+        <v>242702</v>
       </c>
       <c r="L31" t="n">
         <v>198784.992</v>
       </c>
       <c r="M31" t="n">
-        <v>2387</v>
+        <v>188504.992</v>
       </c>
       <c r="N31" t="n">
-        <v>2738</v>
+        <v>236991.008</v>
       </c>
       <c r="O31" t="n">
-        <v>3517</v>
+        <v>236979.008</v>
       </c>
       <c r="P31" t="n">
         <v>207042</v>
       </c>
       <c r="Q31" t="n">
-        <v>1576</v>
+        <v>244512.992</v>
       </c>
       <c r="R31" t="n">
-        <v>1850</v>
+        <v>244258</v>
       </c>
       <c r="S31" t="n">
-        <v>2706</v>
+        <v>273156</v>
       </c>
       <c r="T31" t="n">
-        <v>2861</v>
+        <v>278595.008</v>
       </c>
       <c r="U31" t="n">
-        <v>2957</v>
+        <v>191048</v>
       </c>
       <c r="V31" t="n">
-        <v>2684</v>
+        <v>203024.992</v>
       </c>
       <c r="W31" t="n">
-        <v>2857</v>
+        <v>144960</v>
       </c>
       <c r="X31" t="n">
-        <v>4621</v>
+        <v>179600</v>
       </c>
       <c r="Y31" t="n">
-        <v>4798</v>
+        <v>195262</v>
       </c>
       <c r="Z31" t="n">
-        <v>5038</v>
+        <v>190088</v>
       </c>
       <c r="AA31" t="n">
-        <v>3731</v>
+        <v>175596</v>
       </c>
       <c r="AB31" t="n">
         <v>168580</v>
       </c>
       <c r="AC31" t="n">
-        <v>5150</v>
+        <v>138479.008</v>
       </c>
       <c r="AD31" t="n">
-        <v>5477</v>
+        <v>143275.008</v>
       </c>
       <c r="AE31" t="n">
-        <v>5301</v>
+        <v>90213</v>
       </c>
       <c r="AF31" t="n">
-        <v>5523</v>
+        <v>100922</v>
       </c>
       <c r="AG31" t="n">
-        <v>100922</v>
+        <v>106237</v>
       </c>
       <c r="AH31" t="n">
-        <v>4462</v>
+        <v>102416</v>
       </c>
       <c r="AI31" t="n">
-        <v>3573</v>
+        <v>80817</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3369</v>
+        <v>106086</v>
       </c>
       <c r="AK31" t="n">
-        <v>2791</v>
+        <v>117084</v>
       </c>
       <c r="AL31" t="n">
-        <v>117084</v>
-      </c>
-      <c r="AM31" t="n">
         <v>124642</v>
       </c>
     </row>
@@ -4300,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -4318,19 +4223,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>801</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4348,36 +4253,33 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>1406</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>2586</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>2934</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>2414</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>3362</v>
+        <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
         <v>4943</v>
       </c>
     </row>
@@ -4397,7 +4299,7 @@
         <v>4650</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4650</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -4421,7 +4323,7 @@
         <v>14100</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>14123</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -4433,72 +4335,69 @@
         <v>3643</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3666</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>26072</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>26072</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>11804</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>11757</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AB33" t="n">
         <v>11853</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>11853</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>3897</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>4414</v>
       </c>
       <c r="AG33" t="n">
-        <v>4414</v>
+        <v>368</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="AL33" t="n">
-        <v>114</v>
-      </c>
-      <c r="AM33" t="n">
         <v>114</v>
       </c>
     </row>
@@ -4512,13 +4411,13 @@
         <v>19168</v>
       </c>
       <c r="C34" t="n">
-        <v>301</v>
+        <v>25357</v>
       </c>
       <c r="D34" t="n">
         <v>20591</v>
       </c>
       <c r="E34" t="n">
-        <v>303</v>
+        <v>23193</v>
       </c>
       <c r="F34" t="n">
         <v>29679</v>
@@ -4533,93 +4432,90 @@
         <v>22583</v>
       </c>
       <c r="J34" t="n">
-        <v>387</v>
+        <v>34020</v>
       </c>
       <c r="K34" t="n">
-        <v>435</v>
+        <v>39424</v>
       </c>
       <c r="L34" t="n">
         <v>33681</v>
       </c>
       <c r="M34" t="n">
-        <v>416</v>
+        <v>30173</v>
       </c>
       <c r="N34" t="n">
-        <v>438</v>
+        <v>42903</v>
       </c>
       <c r="O34" t="n">
-        <v>468</v>
+        <v>47866</v>
       </c>
       <c r="P34" t="n">
         <v>40727</v>
       </c>
       <c r="Q34" t="n">
-        <v>566</v>
+        <v>30159</v>
       </c>
       <c r="R34" t="n">
-        <v>728</v>
+        <v>39997</v>
       </c>
       <c r="S34" t="n">
-        <v>879</v>
+        <v>53043</v>
       </c>
       <c r="T34" t="n">
-        <v>1291</v>
+        <v>55524</v>
       </c>
       <c r="U34" t="n">
-        <v>465</v>
+        <v>47588</v>
       </c>
       <c r="V34" t="n">
-        <v>483</v>
+        <v>49279</v>
       </c>
       <c r="W34" t="n">
-        <v>596</v>
+        <v>55473</v>
       </c>
       <c r="X34" t="n">
-        <v>1078</v>
+        <v>50630</v>
       </c>
       <c r="Y34" t="n">
-        <v>695</v>
+        <v>51481</v>
       </c>
       <c r="Z34" t="n">
-        <v>1115</v>
+        <v>62174</v>
       </c>
       <c r="AA34" t="n">
-        <v>825</v>
+        <v>66279</v>
       </c>
       <c r="AB34" t="n">
         <v>72604</v>
       </c>
       <c r="AC34" t="n">
-        <v>433</v>
+        <v>63212</v>
       </c>
       <c r="AD34" t="n">
-        <v>930</v>
+        <v>66557</v>
       </c>
       <c r="AE34" t="n">
-        <v>682</v>
+        <v>60327</v>
       </c>
       <c r="AF34" t="n">
-        <v>848</v>
+        <v>52127</v>
       </c>
       <c r="AG34" t="n">
-        <v>52127</v>
+        <v>55127</v>
       </c>
       <c r="AH34" t="n">
-        <v>803</v>
+        <v>60937</v>
       </c>
       <c r="AI34" t="n">
-        <v>485</v>
+        <v>57946</v>
       </c>
       <c r="AJ34" t="n">
-        <v>590</v>
+        <v>55802</v>
       </c>
       <c r="AK34" t="n">
-        <v>658</v>
+        <v>43419</v>
       </c>
       <c r="AL34" t="n">
-        <v>43419</v>
-      </c>
-      <c r="AM34" t="n">
         <v>53829</v>
       </c>
     </row>
@@ -4633,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>782</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -4654,93 +4550,90 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>547</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>509</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4861,9 +4754,6 @@
       <c r="AL36" t="n">
         <v>0</v>
       </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4875,13 +4765,13 @@
         <v>74311</v>
       </c>
       <c r="C37" t="n">
-        <v>2383</v>
+        <v>109629</v>
       </c>
       <c r="D37" t="n">
         <v>95800</v>
       </c>
       <c r="E37" t="n">
-        <v>4675</v>
+        <v>118535</v>
       </c>
       <c r="F37" t="n">
         <v>89206</v>
@@ -4896,93 +4786,90 @@
         <v>51387</v>
       </c>
       <c r="J37" t="n">
-        <v>4353</v>
+        <v>57456</v>
       </c>
       <c r="K37" t="n">
-        <v>4403</v>
+        <v>74279</v>
       </c>
       <c r="L37" t="n">
         <v>68913</v>
       </c>
       <c r="M37" t="n">
-        <v>5491</v>
+        <v>85940</v>
       </c>
       <c r="N37" t="n">
-        <v>5623</v>
+        <v>43257</v>
       </c>
       <c r="O37" t="n">
-        <v>5978</v>
+        <v>72965</v>
       </c>
       <c r="P37" t="n">
         <v>49858</v>
       </c>
       <c r="Q37" t="n">
-        <v>4922</v>
+        <v>56493</v>
       </c>
       <c r="R37" t="n">
-        <v>5213</v>
+        <v>116856</v>
       </c>
       <c r="S37" t="n">
-        <v>5532</v>
+        <v>138959.008</v>
       </c>
       <c r="T37" t="n">
-        <v>10473</v>
+        <v>143347.008</v>
       </c>
       <c r="U37" t="n">
-        <v>8156</v>
+        <v>133020</v>
       </c>
       <c r="V37" t="n">
-        <v>9513</v>
+        <v>85097</v>
       </c>
       <c r="W37" t="n">
-        <v>8932</v>
+        <v>134780.992</v>
       </c>
       <c r="X37" t="n">
-        <v>10053</v>
+        <v>151790</v>
       </c>
       <c r="Y37" t="n">
-        <v>7037</v>
+        <v>223479.008</v>
       </c>
       <c r="Z37" t="n">
-        <v>7195</v>
+        <v>211074</v>
       </c>
       <c r="AA37" t="n">
-        <v>6009</v>
+        <v>160432.992</v>
       </c>
       <c r="AB37" t="n">
         <v>134736.992</v>
       </c>
       <c r="AC37" t="n">
-        <v>6961</v>
+        <v>145391.008</v>
       </c>
       <c r="AD37" t="n">
-        <v>7287</v>
+        <v>137798</v>
       </c>
       <c r="AE37" t="n">
-        <v>7736</v>
+        <v>170746</v>
       </c>
       <c r="AF37" t="n">
-        <v>10610</v>
+        <v>159488</v>
       </c>
       <c r="AG37" t="n">
-        <v>159488</v>
+        <v>182846</v>
       </c>
       <c r="AH37" t="n">
-        <v>10284</v>
+        <v>201803.008</v>
       </c>
       <c r="AI37" t="n">
-        <v>11027</v>
+        <v>237895.008</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12841</v>
+        <v>256180</v>
       </c>
       <c r="AK37" t="n">
-        <v>11659</v>
+        <v>390870.016</v>
       </c>
       <c r="AL37" t="n">
-        <v>390870.016</v>
-      </c>
-      <c r="AM37" t="n">
         <v>357675.008</v>
       </c>
     </row>
@@ -4996,13 +4883,13 @@
         <v>63243</v>
       </c>
       <c r="C38" t="n">
-        <v>2226</v>
+        <v>105312</v>
       </c>
       <c r="D38" t="n">
         <v>93510</v>
       </c>
       <c r="E38" t="n">
-        <v>2768</v>
+        <v>110426</v>
       </c>
       <c r="F38" t="n">
         <v>80854</v>
@@ -5017,93 +4904,90 @@
         <v>40496</v>
       </c>
       <c r="J38" t="n">
-        <v>2507</v>
+        <v>46551</v>
       </c>
       <c r="K38" t="n">
-        <v>2557</v>
+        <v>59777</v>
       </c>
       <c r="L38" t="n">
         <v>58849</v>
       </c>
       <c r="M38" t="n">
-        <v>3121</v>
+        <v>71492</v>
       </c>
       <c r="N38" t="n">
-        <v>3272</v>
+        <v>25402</v>
       </c>
       <c r="O38" t="n">
-        <v>3645</v>
+        <v>46897</v>
       </c>
       <c r="P38" t="n">
         <v>36808</v>
       </c>
       <c r="Q38" t="n">
-        <v>573</v>
+        <v>43923</v>
       </c>
       <c r="R38" t="n">
-        <v>578</v>
+        <v>104018</v>
       </c>
       <c r="S38" t="n">
-        <v>583</v>
+        <v>125429</v>
       </c>
       <c r="T38" t="n">
-        <v>3722</v>
+        <v>128873</v>
       </c>
       <c r="U38" t="n">
-        <v>2430</v>
+        <v>119124</v>
       </c>
       <c r="V38" t="n">
-        <v>3750</v>
+        <v>71667</v>
       </c>
       <c r="W38" t="n">
-        <v>4566</v>
+        <v>122690</v>
       </c>
       <c r="X38" t="n">
-        <v>4119</v>
+        <v>138696</v>
       </c>
       <c r="Y38" t="n">
-        <v>2026</v>
+        <v>166878</v>
       </c>
       <c r="Z38" t="n">
-        <v>1866</v>
+        <v>156874</v>
       </c>
       <c r="AA38" t="n">
-        <v>955</v>
+        <v>107253</v>
       </c>
       <c r="AB38" t="n">
         <v>87907</v>
       </c>
       <c r="AC38" t="n">
-        <v>273</v>
+        <v>96324</v>
       </c>
       <c r="AD38" t="n">
-        <v>313</v>
+        <v>102750</v>
       </c>
       <c r="AE38" t="n">
-        <v>588</v>
+        <v>134102</v>
       </c>
       <c r="AF38" t="n">
-        <v>1447</v>
+        <v>123478</v>
       </c>
       <c r="AG38" t="n">
-        <v>123478</v>
+        <v>147590</v>
       </c>
       <c r="AH38" t="n">
-        <v>2126</v>
+        <v>165999.008</v>
       </c>
       <c r="AI38" t="n">
-        <v>2745</v>
+        <v>201580</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3568</v>
+        <v>219928</v>
       </c>
       <c r="AK38" t="n">
-        <v>2812</v>
+        <v>342583.008</v>
       </c>
       <c r="AL38" t="n">
-        <v>342583.008</v>
-      </c>
-      <c r="AM38" t="n">
         <v>313820</v>
       </c>
     </row>
@@ -5183,48 +5067,45 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>19851</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>20995</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>22034</v>
       </c>
       <c r="AB39" t="n">
         <v>22877</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>23654</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>8121</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>8396</v>
       </c>
       <c r="AF39" t="n">
-        <v>393</v>
+        <v>8617</v>
       </c>
       <c r="AG39" t="n">
-        <v>8617</v>
+        <v>8844</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>9094</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>8972</v>
       </c>
       <c r="AJ39" t="n">
-        <v>458</v>
+        <v>9245</v>
       </c>
       <c r="AK39" t="n">
-        <v>471</v>
+        <v>9457</v>
       </c>
       <c r="AL39" t="n">
-        <v>9457</v>
-      </c>
-      <c r="AM39" t="n">
         <v>4943</v>
       </c>
     </row>
@@ -5238,13 +5119,13 @@
         <v>11068</v>
       </c>
       <c r="C40" t="n">
-        <v>157</v>
+        <v>4317</v>
       </c>
       <c r="D40" t="n">
         <v>2290</v>
       </c>
       <c r="E40" t="n">
-        <v>526</v>
+        <v>8109</v>
       </c>
       <c r="F40" t="n">
         <v>8352</v>
@@ -5259,93 +5140,90 @@
         <v>10891</v>
       </c>
       <c r="J40" t="n">
-        <v>451</v>
+        <v>10905</v>
       </c>
       <c r="K40" t="n">
-        <v>451</v>
+        <v>14502</v>
       </c>
       <c r="L40" t="n">
         <v>10064</v>
       </c>
       <c r="M40" t="n">
-        <v>1011</v>
+        <v>14448</v>
       </c>
       <c r="N40" t="n">
-        <v>992</v>
+        <v>17855</v>
       </c>
       <c r="O40" t="n">
-        <v>974</v>
+        <v>26068</v>
       </c>
       <c r="P40" t="n">
         <v>13050</v>
       </c>
       <c r="Q40" t="n">
-        <v>3031</v>
+        <v>12570</v>
       </c>
       <c r="R40" t="n">
-        <v>3331</v>
+        <v>12838</v>
       </c>
       <c r="S40" t="n">
-        <v>3645</v>
+        <v>13530</v>
       </c>
       <c r="T40" t="n">
-        <v>124</v>
+        <v>14474</v>
       </c>
       <c r="U40" t="n">
-        <v>4449</v>
+        <v>13896</v>
       </c>
       <c r="V40" t="n">
-        <v>4486</v>
+        <v>13430</v>
       </c>
       <c r="W40" t="n">
-        <v>3089</v>
+        <v>12091</v>
       </c>
       <c r="X40" t="n">
-        <v>265</v>
+        <v>13094</v>
       </c>
       <c r="Y40" t="n">
-        <v>3776</v>
+        <v>36750</v>
       </c>
       <c r="Z40" t="n">
-        <v>4094</v>
+        <v>33205</v>
       </c>
       <c r="AA40" t="n">
-        <v>4650</v>
+        <v>31146</v>
       </c>
       <c r="AB40" t="n">
         <v>23953</v>
       </c>
       <c r="AC40" t="n">
-        <v>871</v>
+        <v>25413</v>
       </c>
       <c r="AD40" t="n">
-        <v>924</v>
+        <v>26927</v>
       </c>
       <c r="AE40" t="n">
-        <v>939</v>
+        <v>28248</v>
       </c>
       <c r="AF40" t="n">
-        <v>629</v>
+        <v>27393</v>
       </c>
       <c r="AG40" t="n">
-        <v>27393</v>
+        <v>26412</v>
       </c>
       <c r="AH40" t="n">
-        <v>1032</v>
+        <v>26710</v>
       </c>
       <c r="AI40" t="n">
-        <v>1092</v>
+        <v>27343</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1127</v>
+        <v>27007</v>
       </c>
       <c r="AK40" t="n">
-        <v>1085</v>
+        <v>38830</v>
       </c>
       <c r="AL40" t="n">
-        <v>38830</v>
-      </c>
-      <c r="AM40" t="n">
         <v>38912</v>
       </c>
     </row>
@@ -5466,9 +5344,6 @@
       <c r="AL41" t="n">
         <v>0</v>
       </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5587,9 +5462,6 @@
       <c r="AL42" t="n">
         <v>0</v>
       </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5607,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -5622,93 +5494,90 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1395</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1395</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1359</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1359</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1359</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1318</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6627</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1277</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1277</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1277</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5669</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1235</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>1235</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>5817</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>6050</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>6209</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>8141</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
         <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>7126</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>7190</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>7688</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>7291</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5829,9 +5698,6 @@
       <c r="AL44" t="n">
         <v>0</v>
       </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5843,13 +5709,13 @@
         <v>10699</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>7260</v>
       </c>
       <c r="D45" t="n">
         <v>6113</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4968</v>
       </c>
       <c r="F45" t="n">
         <v>3821</v>
@@ -5909,19 +5775,19 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>24158</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>22690</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>21472</v>
       </c>
       <c r="AB45" t="n">
         <v>8795</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>4327</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -5948,9 +5814,6 @@
         <v>0</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5964,13 +5827,13 @@
         <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
         <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F46" t="n">
         <v>16</v>
@@ -5985,93 +5848,90 @@
         <v>15</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L46" t="n">
         <v>16</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P46" t="n">
         <v>7</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T46" t="n">
-        <v>11654</v>
+        <v>15</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X46" t="n">
-        <v>10972</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB46" t="n">
         <v>16</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
         <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM46" t="n">
         <v>11</v>
       </c>
     </row>
@@ -6085,13 +5945,13 @@
         <v>373246.016</v>
       </c>
       <c r="C47" t="n">
-        <v>12551</v>
+        <v>386964</v>
       </c>
       <c r="D47" t="n">
         <v>384424.992</v>
       </c>
       <c r="E47" t="n">
-        <v>18085</v>
+        <v>403521.984</v>
       </c>
       <c r="F47" t="n">
         <v>413535.008</v>
@@ -6106,93 +5966,90 @@
         <v>425412.992</v>
       </c>
       <c r="J47" t="n">
-        <v>15865</v>
+        <v>439192.992</v>
       </c>
       <c r="K47" t="n">
-        <v>15226</v>
+        <v>450908.992</v>
       </c>
       <c r="L47" t="n">
         <v>446200</v>
       </c>
       <c r="M47" t="n">
-        <v>14014</v>
+        <v>457094.016</v>
       </c>
       <c r="N47" t="n">
-        <v>12892</v>
+        <v>473385.984</v>
       </c>
       <c r="O47" t="n">
-        <v>11882</v>
+        <v>496100.992</v>
       </c>
       <c r="P47" t="n">
         <v>445812</v>
       </c>
       <c r="Q47" t="n">
-        <v>12929</v>
+        <v>446175.008</v>
       </c>
       <c r="R47" t="n">
-        <v>11728</v>
+        <v>464691.008</v>
       </c>
       <c r="S47" t="n">
-        <v>9778</v>
+        <v>510417.984</v>
       </c>
       <c r="T47" t="n">
-        <v>7032</v>
+        <v>498596.992</v>
       </c>
       <c r="U47" t="n">
-        <v>7092</v>
+        <v>518487.008</v>
       </c>
       <c r="V47" t="n">
-        <v>5932</v>
+        <v>523209.984</v>
       </c>
       <c r="W47" t="n">
-        <v>6416</v>
+        <v>528417.9840000001</v>
       </c>
       <c r="X47" t="n">
-        <v>8256</v>
+        <v>524916</v>
       </c>
       <c r="Y47" t="n">
-        <v>8445</v>
+        <v>529428</v>
       </c>
       <c r="Z47" t="n">
-        <v>6682</v>
+        <v>544172.992</v>
       </c>
       <c r="AA47" t="n">
-        <v>2213</v>
+        <v>548470.976</v>
       </c>
       <c r="AB47" t="n">
         <v>540856</v>
       </c>
       <c r="AC47" t="n">
-        <v>-1323</v>
+        <v>545952</v>
       </c>
       <c r="AD47" t="n">
-        <v>-2804</v>
+        <v>545035.008</v>
       </c>
       <c r="AE47" t="n">
-        <v>-5189</v>
+        <v>550409.9840000001</v>
       </c>
       <c r="AF47" t="n">
-        <v>-7123</v>
+        <v>538078.976</v>
       </c>
       <c r="AG47" t="n">
-        <v>538078.976</v>
+        <v>535872.992</v>
       </c>
       <c r="AH47" t="n">
-        <v>-9005</v>
+        <v>532657.9840000001</v>
       </c>
       <c r="AI47" t="n">
-        <v>-8995</v>
+        <v>516440.992</v>
       </c>
       <c r="AJ47" t="n">
-        <v>-9764</v>
+        <v>516748</v>
       </c>
       <c r="AK47" t="n">
-        <v>-9943</v>
+        <v>516644.992</v>
       </c>
       <c r="AL47" t="n">
-        <v>516644.992</v>
-      </c>
-      <c r="AM47" t="n">
         <v>515672</v>
       </c>
     </row>
@@ -6206,13 +6063,13 @@
         <v>362529.984</v>
       </c>
       <c r="C48" t="n">
-        <v>19222</v>
+        <v>362529.984</v>
       </c>
       <c r="D48" t="n">
         <v>362529.984</v>
       </c>
       <c r="E48" t="n">
-        <v>16076</v>
+        <v>362529.984</v>
       </c>
       <c r="F48" t="n">
         <v>362529.984</v>
@@ -6227,93 +6084,90 @@
         <v>362529.984</v>
       </c>
       <c r="J48" t="n">
-        <v>16076</v>
+        <v>362529.984</v>
       </c>
       <c r="K48" t="n">
-        <v>16076</v>
+        <v>362529.984</v>
       </c>
       <c r="L48" t="n">
         <v>362529.984</v>
       </c>
       <c r="M48" t="n">
-        <v>16076</v>
+        <v>362529.984</v>
       </c>
       <c r="N48" t="n">
-        <v>16076</v>
+        <v>362297.984</v>
       </c>
       <c r="O48" t="n">
-        <v>16076</v>
+        <v>362022.016</v>
       </c>
       <c r="P48" t="n">
         <v>362020.992</v>
       </c>
       <c r="Q48" t="n">
-        <v>16076</v>
+        <v>362020.992</v>
       </c>
       <c r="R48" t="n">
-        <v>14049</v>
+        <v>362020.992</v>
       </c>
       <c r="S48" t="n">
-        <v>14049</v>
+        <v>362020.992</v>
       </c>
       <c r="T48" t="n">
-        <v>14049</v>
+        <v>362331.008</v>
       </c>
       <c r="U48" t="n">
-        <v>14049</v>
+        <v>361238.016</v>
       </c>
       <c r="V48" t="n">
-        <v>14049</v>
+        <v>373065.984</v>
       </c>
       <c r="W48" t="n">
-        <v>14049</v>
+        <v>372640</v>
       </c>
       <c r="X48" t="n">
-        <v>14049</v>
+        <v>371568.992</v>
       </c>
       <c r="Y48" t="n">
-        <v>14049</v>
+        <v>381099.008</v>
       </c>
       <c r="Z48" t="n">
-        <v>14049</v>
+        <v>382604.992</v>
       </c>
       <c r="AA48" t="n">
-        <v>14049</v>
+        <v>380961.984</v>
       </c>
       <c r="AB48" t="n">
         <v>380596</v>
       </c>
       <c r="AC48" t="n">
-        <v>17516</v>
+        <v>402216.992</v>
       </c>
       <c r="AD48" t="n">
-        <v>17516</v>
+        <v>403556.992</v>
       </c>
       <c r="AE48" t="n">
-        <v>17516</v>
+        <v>403408</v>
       </c>
       <c r="AF48" t="n">
-        <v>17516</v>
+        <v>403408</v>
       </c>
       <c r="AG48" t="n">
-        <v>403408</v>
+        <v>437207.008</v>
       </c>
       <c r="AH48" t="n">
-        <v>17516</v>
+        <v>437100</v>
       </c>
       <c r="AI48" t="n">
-        <v>17516</v>
+        <v>436945.984</v>
       </c>
       <c r="AJ48" t="n">
-        <v>17516</v>
+        <v>436912.992</v>
       </c>
       <c r="AK48" t="n">
-        <v>17516</v>
+        <v>436892.992</v>
       </c>
       <c r="AL48" t="n">
-        <v>436892.992</v>
-      </c>
-      <c r="AM48" t="n">
         <v>436892.992</v>
       </c>
     </row>
@@ -6348,93 +6202,90 @@
         <v>198</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="L49" t="n">
         <v>2135</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>2135</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>3309</v>
       </c>
       <c r="P49" t="n">
         <v>3844</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>3943</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>3827</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>3623</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>4288</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>4726</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>4722</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>4485</v>
       </c>
       <c r="X49" t="n">
-        <v>3467</v>
+        <v>4811</v>
       </c>
       <c r="Y49" t="n">
-        <v>3467</v>
+        <v>4903</v>
       </c>
       <c r="Z49" t="n">
-        <v>3467</v>
+        <v>4881</v>
       </c>
       <c r="AA49" t="n">
-        <v>3467</v>
+        <v>5137</v>
       </c>
       <c r="AB49" t="n">
         <v>4999</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>4999</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>4999</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>4999</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>4999</v>
       </c>
       <c r="AG49" t="n">
         <v>4999</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>4999</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>4999</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>4999</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>4999</v>
       </c>
       <c r="AL49" t="n">
-        <v>4999</v>
-      </c>
-      <c r="AM49" t="n">
         <v>4999</v>
       </c>
     </row>
@@ -6448,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>8428</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -6469,93 +6320,90 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>8186</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>8139</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>8081</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>8034</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>7987</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>7376</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AB50" t="n">
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>6725</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>6674</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>4553</v>
+        <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>4551</v>
+        <v>0</v>
       </c>
       <c r="AG50" t="n">
         <v>0</v>
       </c>
       <c r="AH50" t="n">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AI50" t="n">
-        <v>4462</v>
+        <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>4432</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>4402</v>
+        <v>0</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6569,13 +6417,13 @@
         <v>10716</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>10660</v>
       </c>
       <c r="D51" t="n">
         <v>21895</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>22142</v>
       </c>
       <c r="F51" t="n">
         <v>22142</v>
@@ -6590,93 +6438,90 @@
         <v>54064</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>54065</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>54065</v>
       </c>
       <c r="L51" t="n">
         <v>81535</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>81535</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>81535</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>81535</v>
       </c>
       <c r="P51" t="n">
         <v>79947</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>80810</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>79947</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>79948</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>131978</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>131978</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>120676</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>120676</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>148536</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>138800.992</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>138800.992</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>137983.008</v>
       </c>
       <c r="AB51" t="n">
         <v>155260.992</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>133640</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>130781</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>142003.008</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>142003.008</v>
       </c>
       <c r="AG51" t="n">
-        <v>142003.008</v>
+        <v>108445</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>108445</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>74496</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>74495</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>74495</v>
       </c>
       <c r="AL51" t="n">
-        <v>74495</v>
-      </c>
-      <c r="AM51" t="n">
         <v>74495</v>
       </c>
     </row>
@@ -6690,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>-6686</v>
+        <v>13774</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-6419</v>
+        <v>18850</v>
       </c>
       <c r="F52" t="n">
         <v>28863</v>
@@ -6711,93 +6556,90 @@
         <v>8621</v>
       </c>
       <c r="J52" t="n">
-        <v>-8397</v>
+        <v>22400</v>
       </c>
       <c r="K52" t="n">
-        <v>-8989</v>
+        <v>34116</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>-10143</v>
+        <v>10894</v>
       </c>
       <c r="N52" t="n">
-        <v>-11218</v>
+        <v>27418</v>
       </c>
       <c r="O52" t="n">
-        <v>-12181</v>
+        <v>49235</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>-10523</v>
+        <v>-599</v>
       </c>
       <c r="R52" t="n">
-        <v>-2441</v>
+        <v>18896</v>
       </c>
       <c r="S52" t="n">
-        <v>-4391</v>
+        <v>64826</v>
       </c>
       <c r="T52" t="n">
-        <v>-7136</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>-7076</v>
+        <v>20545</v>
       </c>
       <c r="V52" t="n">
-        <v>-8235</v>
+        <v>24746</v>
       </c>
       <c r="W52" t="n">
-        <v>-7751</v>
+        <v>30617</v>
       </c>
       <c r="X52" t="n">
-        <v>-9377</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>-9187</v>
+        <v>4625</v>
       </c>
       <c r="Z52" t="n">
-        <v>-10950</v>
+        <v>17886</v>
       </c>
       <c r="AA52" t="n">
-        <v>-15418</v>
+        <v>24389</v>
       </c>
       <c r="AB52" t="n">
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>-25564</v>
+        <v>5096</v>
       </c>
       <c r="AD52" t="n">
-        <v>-26994</v>
+        <v>5698</v>
       </c>
       <c r="AE52" t="n">
-        <v>-27258</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>-29190</v>
+        <v>-12331</v>
       </c>
       <c r="AG52" t="n">
-        <v>-12331</v>
+        <v>-14778</v>
       </c>
       <c r="AH52" t="n">
-        <v>-31012</v>
+        <v>-17886</v>
       </c>
       <c r="AI52" t="n">
-        <v>-30973</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-31712</v>
+        <v>341</v>
       </c>
       <c r="AK52" t="n">
-        <v>-31861</v>
+        <v>258</v>
       </c>
       <c r="AL52" t="n">
-        <v>258</v>
-      </c>
-      <c r="AM52" t="n">
         <v>-715</v>
       </c>
     </row>
@@ -6918,9 +6760,6 @@
       <c r="AL53" t="n">
         <v>0</v>
       </c>
-      <c r="AM53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7039,9 +6878,6 @@
       <c r="AL54" t="n">
         <v>0</v>
       </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7160,9 +6996,6 @@
       <c r="AL55" t="n">
         <v>0</v>
       </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7281,9 +7114,6 @@
       <c r="AL56" t="n">
         <v>0</v>
       </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7293,11 +7123,11 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>4680</v>
+        <v>150947.008</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
-        <v>3273</v>
+        <v>142148</v>
       </c>
       <c r="F57" t="n">
         <v>151132</v>
@@ -7312,93 +7142,88 @@
         <v>167066</v>
       </c>
       <c r="J57" t="n">
-        <v>3864</v>
+        <v>189136</v>
       </c>
       <c r="K57" t="n">
-        <v>4020</v>
+        <v>209168</v>
       </c>
       <c r="L57" t="n">
         <v>179228.016</v>
       </c>
       <c r="M57" t="n">
-        <v>4024</v>
+        <v>175400.992</v>
       </c>
       <c r="N57" t="n">
-        <v>3672</v>
+        <v>216567.008</v>
       </c>
       <c r="O57" t="n">
-        <v>3743</v>
+        <v>229706</v>
       </c>
       <c r="P57" t="n">
         <v>219708.016</v>
       </c>
       <c r="Q57" t="n">
-        <v>3029</v>
+        <v>178798</v>
       </c>
       <c r="R57" t="n">
-        <v>2720</v>
+        <v>230107.008</v>
       </c>
       <c r="S57" t="n">
-        <v>2836</v>
+        <v>322667.008</v>
       </c>
       <c r="T57" t="n">
-        <v>10009</v>
+        <v>274952</v>
       </c>
       <c r="U57" t="n">
-        <v>2480</v>
+        <v>225620</v>
       </c>
       <c r="V57" t="n">
-        <v>2594</v>
+        <v>276750.016</v>
       </c>
       <c r="W57" t="n">
-        <v>2681</v>
+        <v>286308.992</v>
       </c>
       <c r="X57" t="n">
-        <v>9176</v>
+        <v>274730.976</v>
       </c>
       <c r="Y57" t="n">
-        <v>2619</v>
+        <v>230851.008</v>
       </c>
       <c r="Z57" t="n">
-        <v>2357</v>
+        <v>353856.992</v>
       </c>
       <c r="AA57" t="n">
-        <v>2806</v>
+        <v>391956.992</v>
       </c>
       <c r="AB57" t="n">
         <v>307155.04</v>
       </c>
       <c r="AC57" t="n">
-        <v>2376</v>
+        <v>257868.992</v>
       </c>
       <c r="AD57" t="n">
-        <v>2134</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1812</v>
-      </c>
+        <v>304835.008</v>
+      </c>
+      <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="n">
-        <v>2746</v>
+        <v>196500.992</v>
       </c>
       <c r="AG57" t="n">
-        <v>196500.992</v>
+        <v>253032.992</v>
       </c>
       <c r="AH57" t="n">
-        <v>1078</v>
+        <v>268050</v>
       </c>
       <c r="AI57" t="n">
-        <v>2011</v>
+        <v>229720.016</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-5214</v>
+        <v>203000</v>
       </c>
       <c r="AK57" t="n">
-        <v>2039</v>
+        <v>262583.008</v>
       </c>
       <c r="AL57" t="n">
-        <v>262583.008</v>
-      </c>
-      <c r="AM57" t="n">
         <v>262027.008</v>
       </c>
     </row>
@@ -7410,11 +7235,11 @@
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>-371</v>
+        <v>-20245</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
-        <v>-282</v>
+        <v>-18978</v>
       </c>
       <c r="F58" t="n">
         <v>-21904</v>
@@ -7429,93 +7254,88 @@
         <v>-21391</v>
       </c>
       <c r="J58" t="n">
-        <v>-366</v>
+        <v>-24545</v>
       </c>
       <c r="K58" t="n">
-        <v>-351</v>
+        <v>-27548</v>
       </c>
       <c r="L58" t="n">
         <v>-23040</v>
       </c>
       <c r="M58" t="n">
-        <v>-349</v>
+        <v>-20718</v>
       </c>
       <c r="N58" t="n">
-        <v>-336</v>
+        <v>-26818</v>
       </c>
       <c r="O58" t="n">
-        <v>-311</v>
+        <v>-27605</v>
       </c>
       <c r="P58" t="n">
         <v>-43552</v>
       </c>
       <c r="Q58" t="n">
-        <v>-255</v>
+        <v>-30003</v>
       </c>
       <c r="R58" t="n">
-        <v>-256</v>
+        <v>-36149</v>
       </c>
       <c r="S58" t="n">
-        <v>-235</v>
+        <v>-37114</v>
       </c>
       <c r="T58" t="n">
-        <v>-1041</v>
+        <v>-31254.992</v>
       </c>
       <c r="U58" t="n">
-        <v>-247</v>
+        <v>-33136</v>
       </c>
       <c r="V58" t="n">
-        <v>-231</v>
+        <v>-34023</v>
       </c>
       <c r="W58" t="n">
-        <v>-249</v>
+        <v>-42158</v>
       </c>
       <c r="X58" t="n">
-        <v>-932</v>
+        <v>-33965</v>
       </c>
       <c r="Y58" t="n">
-        <v>-317</v>
+        <v>-43498</v>
       </c>
       <c r="Z58" t="n">
-        <v>-244</v>
+        <v>-68071</v>
       </c>
       <c r="AA58" t="n">
-        <v>-223</v>
+        <v>-77427</v>
       </c>
       <c r="AB58" t="n">
         <v>-58808</v>
       </c>
       <c r="AC58" t="n">
-        <v>-177</v>
+        <v>-48988</v>
       </c>
       <c r="AD58" t="n">
-        <v>-160</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>-125</v>
-      </c>
+        <v>-60806</v>
+      </c>
+      <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="n">
-        <v>-176</v>
+        <v>-38315</v>
       </c>
       <c r="AG58" t="n">
-        <v>-38315</v>
+        <v>-49677</v>
       </c>
       <c r="AH58" t="n">
-        <v>-91</v>
+        <v>-50045</v>
       </c>
       <c r="AI58" t="n">
-        <v>-145</v>
+        <v>-32773</v>
       </c>
       <c r="AJ58" t="n">
-        <v>347</v>
+        <v>-35084</v>
       </c>
       <c r="AK58" t="n">
-        <v>-198</v>
+        <v>-47531</v>
       </c>
       <c r="AL58" t="n">
-        <v>-47531</v>
-      </c>
-      <c r="AM58" t="n">
         <v>-49462</v>
       </c>
     </row>
@@ -7527,11 +7347,11 @@
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>4309</v>
+        <v>130702</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>2991</v>
+        <v>123170</v>
       </c>
       <c r="F59" t="n">
         <v>129228</v>
@@ -7546,93 +7366,88 @@
         <v>145675.008</v>
       </c>
       <c r="J59" t="n">
-        <v>3498</v>
+        <v>164591.008</v>
       </c>
       <c r="K59" t="n">
-        <v>3669</v>
+        <v>181620</v>
       </c>
       <c r="L59" t="n">
         <v>156187.968</v>
       </c>
       <c r="M59" t="n">
-        <v>3675</v>
+        <v>154683.008</v>
       </c>
       <c r="N59" t="n">
-        <v>3336</v>
+        <v>189748.992</v>
       </c>
       <c r="O59" t="n">
-        <v>3432</v>
+        <v>202100.992</v>
       </c>
       <c r="P59" t="n">
         <v>176156.032</v>
       </c>
       <c r="Q59" t="n">
-        <v>2774</v>
+        <v>148795.008</v>
       </c>
       <c r="R59" t="n">
-        <v>2464</v>
+        <v>193958</v>
       </c>
       <c r="S59" t="n">
-        <v>2601</v>
+        <v>285552.992</v>
       </c>
       <c r="T59" t="n">
-        <v>8968</v>
+        <v>243697.008</v>
       </c>
       <c r="U59" t="n">
-        <v>2233</v>
+        <v>192484</v>
       </c>
       <c r="V59" t="n">
-        <v>2363</v>
+        <v>242727.008</v>
       </c>
       <c r="W59" t="n">
-        <v>2432</v>
+        <v>244151.008</v>
       </c>
       <c r="X59" t="n">
-        <v>8244</v>
+        <v>240765.984</v>
       </c>
       <c r="Y59" t="n">
-        <v>2302</v>
+        <v>187352.992</v>
       </c>
       <c r="Z59" t="n">
-        <v>2113</v>
+        <v>285785.984</v>
       </c>
       <c r="AA59" t="n">
-        <v>2583</v>
+        <v>314529.984</v>
       </c>
       <c r="AB59" t="n">
         <v>248347.04</v>
       </c>
       <c r="AC59" t="n">
-        <v>2199</v>
+        <v>208880.992</v>
       </c>
       <c r="AD59" t="n">
-        <v>1974</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1687</v>
-      </c>
+        <v>244028.992</v>
+      </c>
+      <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="n">
-        <v>2570</v>
+        <v>158186</v>
       </c>
       <c r="AG59" t="n">
-        <v>158186</v>
+        <v>203356</v>
       </c>
       <c r="AH59" t="n">
-        <v>987</v>
+        <v>218004.992</v>
       </c>
       <c r="AI59" t="n">
-        <v>1866</v>
+        <v>196947.024</v>
       </c>
       <c r="AJ59" t="n">
-        <v>-4867</v>
+        <v>167916</v>
       </c>
       <c r="AK59" t="n">
-        <v>1841</v>
+        <v>215052</v>
       </c>
       <c r="AL59" t="n">
-        <v>215052</v>
-      </c>
-      <c r="AM59" t="n">
         <v>212564.992</v>
       </c>
     </row>
@@ -7644,11 +7459,11 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>-3036</v>
+        <v>-103986</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>-2613</v>
+        <v>-87913</v>
       </c>
       <c r="F60" t="n">
         <v>-94164</v>
@@ -7663,93 +7478,88 @@
         <v>-110724</v>
       </c>
       <c r="J60" t="n">
-        <v>-2757</v>
+        <v>-116601</v>
       </c>
       <c r="K60" t="n">
-        <v>-2943</v>
+        <v>-132331</v>
       </c>
       <c r="L60" t="n">
         <v>-119032.992</v>
       </c>
       <c r="M60" t="n">
-        <v>-3013</v>
+        <v>-116166</v>
       </c>
       <c r="N60" t="n">
-        <v>-3054</v>
+        <v>-139158</v>
       </c>
       <c r="O60" t="n">
-        <v>-3061</v>
+        <v>-143926</v>
       </c>
       <c r="P60" t="n">
         <v>-132810</v>
       </c>
       <c r="Q60" t="n">
-        <v>-2677</v>
+        <v>-112482</v>
       </c>
       <c r="R60" t="n">
-        <v>-2676</v>
+        <v>-139826</v>
       </c>
       <c r="S60" t="n">
-        <v>-2739</v>
+        <v>-198096.992</v>
       </c>
       <c r="T60" t="n">
-        <v>-7892</v>
+        <v>-174440</v>
       </c>
       <c r="U60" t="n">
-        <v>-2299</v>
+        <v>-137699.008</v>
       </c>
       <c r="V60" t="n">
-        <v>-2363</v>
+        <v>-193752.992</v>
       </c>
       <c r="W60" t="n">
-        <v>-2447</v>
+        <v>-205428.992</v>
       </c>
       <c r="X60" t="n">
-        <v>-7541</v>
+        <v>-188669.024</v>
       </c>
       <c r="Y60" t="n">
-        <v>-2103</v>
+        <v>-146176.992</v>
       </c>
       <c r="Z60" t="n">
-        <v>-2110</v>
+        <v>-231480.992</v>
       </c>
       <c r="AA60" t="n">
-        <v>-2436</v>
+        <v>-257416</v>
       </c>
       <c r="AB60" t="n">
         <v>-209372.032</v>
       </c>
       <c r="AC60" t="n">
-        <v>-2139</v>
+        <v>-173662</v>
       </c>
       <c r="AD60" t="n">
-        <v>-1897</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>-1601</v>
-      </c>
+        <v>-199016.992</v>
+      </c>
+      <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="n">
-        <v>-2359</v>
+        <v>-128660</v>
       </c>
       <c r="AG60" t="n">
-        <v>-128660</v>
+        <v>-169671.008</v>
       </c>
       <c r="AH60" t="n">
-        <v>-1022</v>
+        <v>-183726</v>
       </c>
       <c r="AI60" t="n">
-        <v>-1126</v>
+        <v>-168429.008</v>
       </c>
       <c r="AJ60" t="n">
-        <v>5470</v>
+        <v>-138780</v>
       </c>
       <c r="AK60" t="n">
-        <v>-1261</v>
+        <v>-179571.008</v>
       </c>
       <c r="AL60" t="n">
-        <v>-179571.008</v>
-      </c>
-      <c r="AM60" t="n">
         <v>-178942</v>
       </c>
     </row>
@@ -7761,11 +7571,11 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1273</v>
+        <v>26716</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
-        <v>378</v>
+        <v>35257</v>
       </c>
       <c r="F61" t="n">
         <v>35064</v>
@@ -7780,93 +7590,88 @@
         <v>34951</v>
       </c>
       <c r="J61" t="n">
-        <v>741</v>
+        <v>47990</v>
       </c>
       <c r="K61" t="n">
-        <v>726</v>
+        <v>49289</v>
       </c>
       <c r="L61" t="n">
         <v>37154.992</v>
       </c>
       <c r="M61" t="n">
-        <v>662</v>
+        <v>38517</v>
       </c>
       <c r="N61" t="n">
-        <v>282</v>
+        <v>50591</v>
       </c>
       <c r="O61" t="n">
-        <v>371</v>
+        <v>58175</v>
       </c>
       <c r="P61" t="n">
         <v>43345.992</v>
       </c>
       <c r="Q61" t="n">
-        <v>97</v>
+        <v>36313</v>
       </c>
       <c r="R61" t="n">
-        <v>-212</v>
+        <v>54132</v>
       </c>
       <c r="S61" t="n">
-        <v>-138</v>
+        <v>87456</v>
       </c>
       <c r="T61" t="n">
-        <v>1076</v>
+        <v>69257</v>
       </c>
       <c r="U61" t="n">
-        <v>-66</v>
+        <v>54785</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>48974</v>
       </c>
       <c r="W61" t="n">
-        <v>-15</v>
+        <v>38722</v>
       </c>
       <c r="X61" t="n">
-        <v>703</v>
+        <v>52097</v>
       </c>
       <c r="Y61" t="n">
-        <v>199</v>
+        <v>41176</v>
       </c>
       <c r="Z61" t="n">
-        <v>3</v>
+        <v>54305</v>
       </c>
       <c r="AA61" t="n">
-        <v>147</v>
+        <v>57114</v>
       </c>
       <c r="AB61" t="n">
         <v>38975</v>
       </c>
       <c r="AC61" t="n">
-        <v>60</v>
+        <v>35219</v>
       </c>
       <c r="AD61" t="n">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>86</v>
-      </c>
+        <v>45012</v>
+      </c>
+      <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="n">
-        <v>211</v>
+        <v>29526</v>
       </c>
       <c r="AG61" t="n">
-        <v>29526</v>
+        <v>33685</v>
       </c>
       <c r="AH61" t="n">
-        <v>-35</v>
+        <v>34279</v>
       </c>
       <c r="AI61" t="n">
-        <v>740</v>
+        <v>28518</v>
       </c>
       <c r="AJ61" t="n">
-        <v>603</v>
+        <v>29136</v>
       </c>
       <c r="AK61" t="n">
-        <v>580</v>
+        <v>35481</v>
       </c>
       <c r="AL61" t="n">
-        <v>35481</v>
-      </c>
-      <c r="AM61" t="n">
         <v>33623</v>
       </c>
     </row>
@@ -7878,11 +7683,11 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>-549</v>
+        <v>-12520</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>-421</v>
+        <v>-11300</v>
       </c>
       <c r="F62" t="n">
         <v>-11705</v>
@@ -7897,93 +7702,88 @@
         <v>-13790</v>
       </c>
       <c r="J62" t="n">
-        <v>-496</v>
+        <v>-12916</v>
       </c>
       <c r="K62" t="n">
-        <v>-546</v>
+        <v>-17428</v>
       </c>
       <c r="L62" t="n">
         <v>-13364</v>
       </c>
       <c r="M62" t="n">
-        <v>-502</v>
+        <v>-16652</v>
       </c>
       <c r="N62" t="n">
-        <v>-607</v>
+        <v>-15813</v>
       </c>
       <c r="O62" t="n">
-        <v>-631</v>
+        <v>-19118</v>
       </c>
       <c r="P62" t="n">
         <v>-16815</v>
       </c>
       <c r="Q62" t="n">
-        <v>-592</v>
+        <v>-14333</v>
       </c>
       <c r="R62" t="n">
-        <v>-491</v>
+        <v>-17611</v>
       </c>
       <c r="S62" t="n">
-        <v>-502</v>
+        <v>-23411</v>
       </c>
       <c r="T62" t="n">
-        <v>-984</v>
+        <v>-20874</v>
       </c>
       <c r="U62" t="n">
-        <v>-368</v>
+        <v>-17566</v>
       </c>
       <c r="V62" t="n">
-        <v>-413</v>
+        <v>-18208</v>
       </c>
       <c r="W62" t="n">
-        <v>-436</v>
+        <v>-19020</v>
       </c>
       <c r="X62" t="n">
-        <v>-1250</v>
+        <v>-18265</v>
       </c>
       <c r="Y62" t="n">
-        <v>-382</v>
+        <v>-16983</v>
       </c>
       <c r="Z62" t="n">
-        <v>-314</v>
+        <v>-21583</v>
       </c>
       <c r="AA62" t="n">
-        <v>-557</v>
+        <v>-23827</v>
       </c>
       <c r="AB62" t="n">
         <v>-19872</v>
       </c>
       <c r="AC62" t="n">
-        <v>-369</v>
+        <v>-15364</v>
       </c>
       <c r="AD62" t="n">
-        <v>-396</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>-394</v>
-      </c>
+        <v>-17516</v>
+      </c>
+      <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="n">
-        <v>218</v>
+        <v>-16577</v>
       </c>
       <c r="AG62" t="n">
-        <v>-16577</v>
+        <v>-18447</v>
       </c>
       <c r="AH62" t="n">
-        <v>-231</v>
+        <v>-18988</v>
       </c>
       <c r="AI62" t="n">
-        <v>-156</v>
+        <v>-13861</v>
       </c>
       <c r="AJ62" t="n">
-        <v>588</v>
+        <v>-13421</v>
       </c>
       <c r="AK62" t="n">
-        <v>-147</v>
+        <v>-17182</v>
       </c>
       <c r="AL62" t="n">
-        <v>-17182</v>
-      </c>
-      <c r="AM62" t="n">
         <v>-15968</v>
       </c>
     </row>
@@ -7995,11 +7795,11 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>-368</v>
+        <v>-6963</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>-451</v>
+        <v>-5437</v>
       </c>
       <c r="F63" t="n">
         <v>-5271</v>
@@ -8014,93 +7814,88 @@
         <v>-5770</v>
       </c>
       <c r="J63" t="n">
-        <v>-463</v>
+        <v>-8172</v>
       </c>
       <c r="K63" t="n">
-        <v>-534</v>
+        <v>-6205</v>
       </c>
       <c r="L63" t="n">
         <v>-6637</v>
       </c>
       <c r="M63" t="n">
-        <v>-465</v>
+        <v>-6422</v>
       </c>
       <c r="N63" t="n">
-        <v>-498</v>
+        <v>-8646</v>
       </c>
       <c r="O63" t="n">
-        <v>-471</v>
+        <v>-8301</v>
       </c>
       <c r="P63" t="n">
         <v>-8070</v>
       </c>
       <c r="Q63" t="n">
-        <v>-443</v>
+        <v>-5973</v>
       </c>
       <c r="R63" t="n">
-        <v>-479</v>
+        <v>-7518</v>
       </c>
       <c r="S63" t="n">
-        <v>-597</v>
+        <v>-11474</v>
       </c>
       <c r="T63" t="n">
-        <v>-1980</v>
+        <v>-9429</v>
       </c>
       <c r="U63" t="n">
-        <v>-641</v>
+        <v>-8176</v>
       </c>
       <c r="V63" t="n">
-        <v>-568</v>
+        <v>-8625</v>
       </c>
       <c r="W63" t="n">
-        <v>-649</v>
+        <v>-9519</v>
       </c>
       <c r="X63" t="n">
-        <v>-2308</v>
+        <v>-11173</v>
       </c>
       <c r="Y63" t="n">
-        <v>-734</v>
+        <v>-9475</v>
       </c>
       <c r="Z63" t="n">
-        <v>-662</v>
+        <v>-11251</v>
       </c>
       <c r="AA63" t="n">
-        <v>-833</v>
+        <v>-10238</v>
       </c>
       <c r="AB63" t="n">
         <v>-10652</v>
       </c>
       <c r="AC63" t="n">
-        <v>-833</v>
+        <v>-9318</v>
       </c>
       <c r="AD63" t="n">
-        <v>-684</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>-739</v>
-      </c>
+        <v>-10780</v>
+      </c>
+      <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="n">
-        <v>-2274</v>
+        <v>-8850</v>
       </c>
       <c r="AG63" t="n">
-        <v>-8850</v>
+        <v>-9386</v>
       </c>
       <c r="AH63" t="n">
-        <v>-650</v>
+        <v>-10656</v>
       </c>
       <c r="AI63" t="n">
-        <v>-617</v>
+        <v>-10197</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3383</v>
+        <v>-8732</v>
       </c>
       <c r="AK63" t="n">
-        <v>-452</v>
+        <v>-10433</v>
       </c>
       <c r="AL63" t="n">
-        <v>-10433</v>
-      </c>
-      <c r="AM63" t="n">
         <v>-11010</v>
       </c>
     </row>
@@ -8111,95 +7906,42 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
       <c r="AL64" t="inlineStr"/>
-      <c r="AM64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8209,11 +7951,11 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>45</v>
+        <v>1682</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
-        <v>18</v>
+        <v>23681</v>
       </c>
       <c r="F65" t="n">
         <v>2788</v>
@@ -8228,93 +7970,88 @@
         <v>1146</v>
       </c>
       <c r="J65" t="n">
-        <v>47</v>
+        <v>2432</v>
       </c>
       <c r="K65" t="n">
-        <v>47</v>
+        <v>1807</v>
       </c>
       <c r="L65" t="n">
         <v>-3858</v>
       </c>
       <c r="M65" t="n">
-        <v>93</v>
+        <v>8796</v>
       </c>
       <c r="N65" t="n">
-        <v>48</v>
+        <v>6563</v>
       </c>
       <c r="O65" t="n">
-        <v>12</v>
+        <v>17000</v>
       </c>
       <c r="P65" t="n">
         <v>-32359</v>
       </c>
       <c r="Q65" t="n">
-        <v>28</v>
+        <v>-7252</v>
       </c>
       <c r="R65" t="n">
-        <v>36</v>
+        <v>17228</v>
       </c>
       <c r="S65" t="n">
-        <v>35</v>
+        <v>33966</v>
       </c>
       <c r="T65" t="n">
-        <v>51</v>
+        <v>-43942</v>
       </c>
       <c r="U65" t="n">
-        <v>22</v>
+        <v>969</v>
       </c>
       <c r="V65" t="n">
-        <v>98</v>
+        <v>-13409</v>
       </c>
       <c r="W65" t="n">
-        <v>38</v>
+        <v>2977</v>
       </c>
       <c r="X65" t="n">
-        <v>182</v>
+        <v>9463</v>
       </c>
       <c r="Y65" t="n">
-        <v>23</v>
+        <v>-29</v>
       </c>
       <c r="Z65" t="n">
-        <v>38</v>
+        <v>5543</v>
       </c>
       <c r="AA65" t="n">
-        <v>84</v>
+        <v>-10645</v>
       </c>
       <c r="AB65" t="n">
         <v>5381</v>
       </c>
       <c r="AC65" t="n">
-        <v>60</v>
+        <v>-2323</v>
       </c>
       <c r="AD65" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="n">
-        <v>47</v>
+        <v>7039</v>
       </c>
       <c r="AG65" t="n">
-        <v>7039</v>
+        <v>932</v>
       </c>
       <c r="AH65" t="n">
-        <v>91</v>
+        <v>-515</v>
       </c>
       <c r="AI65" t="n">
-        <v>6</v>
+        <v>-7456</v>
       </c>
       <c r="AJ65" t="n">
-        <v>-82</v>
+        <v>13109</v>
       </c>
       <c r="AK65" t="n">
-        <v>5</v>
+        <v>11760</v>
       </c>
       <c r="AL65" t="n">
-        <v>11760</v>
-      </c>
-      <c r="AM65" t="n">
         <v>11656</v>
       </c>
     </row>
@@ -8326,11 +8063,11 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>-83</v>
+        <v>-2275</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -8345,93 +8082,88 @@
         <v>-2458</v>
       </c>
       <c r="J66" t="n">
-        <v>-34</v>
+        <v>-2582</v>
       </c>
       <c r="K66" t="n">
-        <v>-85</v>
+        <v>-4942</v>
       </c>
       <c r="L66" t="n">
         <v>-1941</v>
       </c>
       <c r="M66" t="n">
-        <v>-13</v>
+        <v>-6080</v>
       </c>
       <c r="N66" t="n">
-        <v>-24</v>
+        <v>-7811</v>
       </c>
       <c r="O66" t="n">
-        <v>-18</v>
+        <v>-14112</v>
       </c>
       <c r="P66" t="n">
         <v>-24205</v>
       </c>
       <c r="Q66" t="n">
-        <v>-100</v>
+        <v>-5509</v>
       </c>
       <c r="R66" t="n">
-        <v>-27</v>
+        <v>-19896</v>
       </c>
       <c r="S66" t="n">
-        <v>-47</v>
+        <v>-40605</v>
       </c>
       <c r="T66" t="n">
-        <v>174</v>
+        <v>35908</v>
       </c>
       <c r="U66" t="n">
-        <v>-229</v>
+        <v>5569</v>
       </c>
       <c r="V66" t="n">
-        <v>23</v>
+        <v>11234</v>
       </c>
       <c r="W66" t="n">
-        <v>-52</v>
+        <v>-1046</v>
       </c>
       <c r="X66" t="n">
-        <v>258</v>
+        <v>-6098</v>
       </c>
       <c r="Y66" t="n">
-        <v>-173</v>
+        <v>-864</v>
       </c>
       <c r="Z66" t="n">
-        <v>-136</v>
+        <v>-10596</v>
       </c>
       <c r="AA66" t="n">
-        <v>-224</v>
+        <v>8704</v>
       </c>
       <c r="AB66" t="n">
         <v>-4332</v>
       </c>
       <c r="AC66" t="n">
-        <v>-116</v>
+        <v>1891</v>
       </c>
       <c r="AD66" t="n">
-        <v>-82</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>-72</v>
-      </c>
+        <v>-4987</v>
+      </c>
+      <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="n">
-        <v>270</v>
+        <v>-16986</v>
       </c>
       <c r="AG66" t="n">
-        <v>-16986</v>
+        <v>-2935</v>
       </c>
       <c r="AH66" t="n">
-        <v>-36</v>
+        <v>190</v>
       </c>
       <c r="AI66" t="n">
-        <v>-35</v>
+        <v>-251</v>
       </c>
       <c r="AJ66" t="n">
-        <v>71</v>
+        <v>-9730</v>
       </c>
       <c r="AK66" t="n">
-        <v>-28</v>
+        <v>-7399</v>
       </c>
       <c r="AL66" t="n">
-        <v>-7399</v>
-      </c>
-      <c r="AM66" t="n">
         <v>-4944</v>
       </c>
     </row>
@@ -8443,11 +8175,11 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>-126</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>-191</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>-250</v>
@@ -8462,93 +8194,88 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>-63</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>-159</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y67" t="n">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="Z67" t="n">
-        <v>-138</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>-153</v>
+        <v>0</v>
       </c>
       <c r="AB67" t="n">
         <v>0</v>
       </c>
       <c r="AC67" t="n">
-        <v>-168</v>
+        <v>0</v>
       </c>
       <c r="AD67" t="n">
-        <v>-138</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>-1983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="n">
-        <v>2289</v>
+        <v>0</v>
       </c>
       <c r="AG67" t="n">
         <v>0</v>
       </c>
       <c r="AH67" t="n">
-        <v>-66</v>
+        <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AJ67" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AK67" t="n">
         <v>0</v>
       </c>
       <c r="AL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8560,11 +8287,11 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>33</v>
+        <v>-1013</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>27</v>
+        <v>-37710</v>
       </c>
       <c r="F68" t="n">
         <v>-6635</v>
@@ -8579,93 +8306,88 @@
         <v>-128</v>
       </c>
       <c r="J68" t="n">
-        <v>-240</v>
+        <v>-5674</v>
       </c>
       <c r="K68" t="n">
-        <v>-196</v>
+        <v>-2425</v>
       </c>
       <c r="L68" t="n">
         <v>-711</v>
       </c>
       <c r="M68" t="n">
-        <v>-161</v>
+        <v>-3388</v>
       </c>
       <c r="N68" t="n">
-        <v>-192</v>
+        <v>-2765</v>
       </c>
       <c r="O68" t="n">
-        <v>-212</v>
+        <v>-5610</v>
       </c>
       <c r="P68" t="n">
         <v>480</v>
       </c>
       <c r="Q68" t="n">
-        <v>-240</v>
+        <v>1756</v>
       </c>
       <c r="R68" t="n">
-        <v>-151</v>
+        <v>-7158</v>
       </c>
       <c r="S68" t="n">
-        <v>-263</v>
+        <v>-2493</v>
       </c>
       <c r="T68" t="n">
-        <v>-1515</v>
+        <v>-7200</v>
       </c>
       <c r="U68" t="n">
-        <v>-365</v>
+        <v>-3916</v>
       </c>
       <c r="V68" t="n">
-        <v>-291</v>
+        <v>-6957</v>
       </c>
       <c r="W68" t="n">
-        <v>-482</v>
+        <v>-5332</v>
       </c>
       <c r="X68" t="n">
-        <v>-554</v>
+        <v>-9299</v>
       </c>
       <c r="Y68" t="n">
-        <v>-382</v>
+        <v>-5929</v>
       </c>
       <c r="Z68" t="n">
-        <v>-554</v>
+        <v>-7505</v>
       </c>
       <c r="AA68" t="n">
-        <v>-929</v>
+        <v>-6688</v>
       </c>
       <c r="AB68" t="n">
         <v>-6977</v>
       </c>
       <c r="AC68" t="n">
-        <v>-491</v>
+        <v>-5766</v>
       </c>
       <c r="AD68" t="n">
-        <v>-373</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>-573</v>
-      </c>
+        <v>-5770</v>
+      </c>
+      <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="n">
-        <v>-964</v>
+        <v>-3862</v>
       </c>
       <c r="AG68" t="n">
-        <v>-3862</v>
+        <v>-3164</v>
       </c>
       <c r="AH68" t="n">
-        <v>-605</v>
+        <v>-6009</v>
       </c>
       <c r="AI68" t="n">
-        <v>54</v>
+        <v>-15586</v>
       </c>
       <c r="AJ68" t="n">
-        <v>1040</v>
+        <v>-6710</v>
       </c>
       <c r="AK68" t="n">
-        <v>-160</v>
+        <v>-8719</v>
       </c>
       <c r="AL68" t="n">
-        <v>-8719</v>
-      </c>
-      <c r="AM68" t="n">
         <v>-11468</v>
       </c>
     </row>
@@ -8677,11 +8399,11 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>201</v>
+        <v>14387</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
-        <v>206</v>
+        <v>96302</v>
       </c>
       <c r="F69" t="n">
         <v>10035</v>
@@ -8696,93 +8418,88 @@
         <v>11683</v>
       </c>
       <c r="J69" t="n">
-        <v>-44</v>
+        <v>11170</v>
       </c>
       <c r="K69" t="n">
-        <v>9</v>
+        <v>11279</v>
       </c>
       <c r="L69" t="n">
         <v>13740</v>
       </c>
       <c r="M69" t="n">
-        <v>18</v>
+        <v>10805</v>
       </c>
       <c r="N69" t="n">
-        <v>34</v>
+        <v>13790</v>
       </c>
       <c r="O69" t="n">
-        <v>28</v>
+        <v>15229</v>
       </c>
       <c r="P69" t="n">
         <v>9721</v>
       </c>
       <c r="Q69" t="n">
-        <v>67</v>
+        <v>9540</v>
       </c>
       <c r="R69" t="n">
-        <v>90</v>
+        <v>3576</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>4332</v>
       </c>
       <c r="T69" t="n">
-        <v>144</v>
+        <v>1960</v>
       </c>
       <c r="U69" t="n">
-        <v>40</v>
+        <v>8494</v>
       </c>
       <c r="V69" t="n">
-        <v>166</v>
+        <v>2492</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>4905</v>
       </c>
       <c r="X69" t="n">
-        <v>696</v>
+        <v>2690</v>
       </c>
       <c r="Y69" t="n">
-        <v>4</v>
+        <v>3750</v>
       </c>
       <c r="Z69" t="n">
-        <v>6</v>
+        <v>4766</v>
       </c>
       <c r="AA69" t="n">
-        <v>52</v>
+        <v>2672</v>
       </c>
       <c r="AB69" t="n">
         <v>1099</v>
       </c>
       <c r="AC69" t="n">
-        <v>3</v>
+        <v>1268</v>
       </c>
       <c r="AD69" t="n">
-        <v>236</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>113</v>
-      </c>
+        <v>3294</v>
+      </c>
+      <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="n">
-        <v>2</v>
+        <v>1457</v>
       </c>
       <c r="AG69" t="n">
-        <v>1457</v>
+        <v>1710</v>
       </c>
       <c r="AH69" t="n">
-        <v>6</v>
+        <v>1014</v>
       </c>
       <c r="AI69" t="n">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="AJ69" t="n">
-        <v>-35</v>
+        <v>1535</v>
       </c>
       <c r="AK69" t="n">
-        <v>66</v>
+        <v>3691</v>
       </c>
       <c r="AL69" t="n">
-        <v>3691</v>
-      </c>
-      <c r="AM69" t="n">
         <v>2589</v>
       </c>
     </row>
@@ -8794,11 +8511,11 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>-168</v>
+        <v>-15400</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
-        <v>-179</v>
+        <v>-134012</v>
       </c>
       <c r="F70" t="n">
         <v>-16670</v>
@@ -8813,93 +8530,88 @@
         <v>-11811</v>
       </c>
       <c r="J70" t="n">
-        <v>-196</v>
+        <v>-16844</v>
       </c>
       <c r="K70" t="n">
-        <v>-205</v>
+        <v>-13704</v>
       </c>
       <c r="L70" t="n">
         <v>-14451</v>
       </c>
       <c r="M70" t="n">
-        <v>-179</v>
+        <v>-14193</v>
       </c>
       <c r="N70" t="n">
-        <v>-226</v>
+        <v>-16555</v>
       </c>
       <c r="O70" t="n">
-        <v>-240</v>
+        <v>-20839</v>
       </c>
       <c r="P70" t="n">
         <v>-9241</v>
       </c>
       <c r="Q70" t="n">
-        <v>-307</v>
+        <v>-7784</v>
       </c>
       <c r="R70" t="n">
-        <v>-241</v>
+        <v>-10734</v>
       </c>
       <c r="S70" t="n">
-        <v>-265</v>
+        <v>-6825</v>
       </c>
       <c r="T70" t="n">
-        <v>-1659</v>
+        <v>-9160</v>
       </c>
       <c r="U70" t="n">
-        <v>-405</v>
+        <v>-12410</v>
       </c>
       <c r="V70" t="n">
-        <v>-457</v>
+        <v>-9449</v>
       </c>
       <c r="W70" t="n">
-        <v>-482</v>
+        <v>-10237</v>
       </c>
       <c r="X70" t="n">
-        <v>-1250</v>
+        <v>-11989</v>
       </c>
       <c r="Y70" t="n">
-        <v>-386</v>
+        <v>-9679</v>
       </c>
       <c r="Z70" t="n">
-        <v>-560</v>
+        <v>-12271</v>
       </c>
       <c r="AA70" t="n">
-        <v>-981</v>
+        <v>-9360</v>
       </c>
       <c r="AB70" t="n">
         <v>-8076</v>
       </c>
       <c r="AC70" t="n">
-        <v>-494</v>
+        <v>-7034</v>
       </c>
       <c r="AD70" t="n">
-        <v>-609</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>-686</v>
-      </c>
+        <v>-9064</v>
+      </c>
+      <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="n">
-        <v>-966</v>
+        <v>-5319</v>
       </c>
       <c r="AG70" t="n">
-        <v>-5319</v>
+        <v>-4874</v>
       </c>
       <c r="AH70" t="n">
-        <v>-611</v>
+        <v>-7023</v>
       </c>
       <c r="AI70" t="n">
-        <v>-254</v>
+        <v>-15609</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1075</v>
+        <v>-8245</v>
       </c>
       <c r="AK70" t="n">
-        <v>-226</v>
+        <v>-12410</v>
       </c>
       <c r="AL70" t="n">
-        <v>-12410</v>
-      </c>
-      <c r="AM70" t="n">
         <v>-14057</v>
       </c>
     </row>
@@ -8911,11 +8623,11 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>-644</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F71" t="n">
         <v>-805</v>
@@ -8930,93 +8642,88 @@
         <v>32</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-764</v>
       </c>
       <c r="K71" t="n">
-        <v>12</v>
+        <v>-1162</v>
       </c>
       <c r="L71" t="n">
         <v>3165</v>
       </c>
       <c r="M71" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>679</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>-178</v>
       </c>
       <c r="P71" t="n">
         <v>-821</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="R71" t="n">
-        <v>269</v>
+        <v>-531</v>
       </c>
       <c r="S71" t="n">
-        <v>20</v>
+        <v>625</v>
       </c>
       <c r="T71" t="n">
-        <v>107</v>
+        <v>1229</v>
       </c>
       <c r="U71" t="n">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="V71" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="W71" t="n">
-        <v>2028</v>
+        <v>287</v>
       </c>
       <c r="X71" t="n">
-        <v>484</v>
+        <v>313</v>
       </c>
       <c r="Y71" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>7815</v>
       </c>
       <c r="AA71" t="n">
-        <v>-2835</v>
+        <v>2205</v>
       </c>
       <c r="AB71" t="n">
         <v>3475</v>
       </c>
       <c r="AC71" t="n">
-        <v>101</v>
+        <v>409</v>
       </c>
       <c r="AD71" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>643</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="n">
-        <v>-2462</v>
+        <v>-454</v>
       </c>
       <c r="AG71" t="n">
-        <v>-454</v>
+        <v>-2263</v>
       </c>
       <c r="AH71" t="n">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="AI71" t="n">
-        <v>0</v>
+        <v>-3389</v>
       </c>
       <c r="AJ71" t="n">
-        <v>1108</v>
+        <v>419</v>
       </c>
       <c r="AK71" t="n">
-        <v>0</v>
+        <v>2328</v>
       </c>
       <c r="AL71" t="n">
-        <v>2328</v>
-      </c>
-      <c r="AM71" t="n">
         <v>-912</v>
       </c>
     </row>
@@ -9028,11 +8735,11 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>1011</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="F72" t="n">
         <v>782</v>
@@ -9047,93 +8754,88 @@
         <v>726</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1313</v>
       </c>
       <c r="K72" t="n">
-        <v>12</v>
+        <v>2225</v>
       </c>
       <c r="L72" t="n">
         <v>5768</v>
       </c>
       <c r="M72" t="n">
-        <v>19</v>
+        <v>621</v>
       </c>
       <c r="N72" t="n">
-        <v>18</v>
+        <v>2779</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="P72" t="n">
         <v>3697</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>1629</v>
       </c>
       <c r="R72" t="n">
-        <v>269</v>
+        <v>-620</v>
       </c>
       <c r="S72" t="n">
-        <v>20</v>
+        <v>1096</v>
       </c>
       <c r="T72" t="n">
-        <v>107</v>
+        <v>4634</v>
       </c>
       <c r="U72" t="n">
-        <v>1</v>
+        <v>1684</v>
       </c>
       <c r="V72" t="n">
-        <v>1</v>
+        <v>5759</v>
       </c>
       <c r="W72" t="n">
-        <v>2028</v>
+        <v>-300</v>
       </c>
       <c r="X72" t="n">
-        <v>484</v>
+        <v>-6456</v>
       </c>
       <c r="Y72" t="n">
-        <v>1</v>
+        <v>5099</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>10414</v>
       </c>
       <c r="AA72" t="n">
-        <v>5001</v>
+        <v>835</v>
       </c>
       <c r="AB72" t="n">
         <v>3523</v>
       </c>
       <c r="AC72" t="n">
-        <v>312</v>
+        <v>1466</v>
       </c>
       <c r="AD72" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1000</v>
-      </c>
+        <v>11500</v>
+      </c>
+      <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="n">
-        <v>2330</v>
+        <v>968</v>
       </c>
       <c r="AG72" t="n">
-        <v>968</v>
+        <v>2968</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-3667</v>
+        <v>1423</v>
       </c>
       <c r="AK72" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="AL72" t="n">
-        <v>1868</v>
-      </c>
-      <c r="AM72" t="n">
         <v>845</v>
       </c>
     </row>
@@ -9145,11 +8847,11 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>-1655</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-446</v>
       </c>
       <c r="F73" t="n">
         <v>-1587</v>
@@ -9164,93 +8866,88 @@
         <v>-694</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>-2077</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="L73" t="n">
         <v>-2603</v>
       </c>
       <c r="M73" t="n">
-        <v>-7</v>
+        <v>-511</v>
       </c>
       <c r="N73" t="n">
-        <v>-17</v>
+        <v>-2100</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>-353</v>
       </c>
       <c r="P73" t="n">
         <v>-4518</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>-1681</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>-471</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>-3405</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>-1512</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>-5714</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
+        <v>6769</v>
       </c>
       <c r="Y73" t="n">
-        <v>0</v>
+        <v>-5024</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>-2599</v>
       </c>
       <c r="AA73" t="n">
-        <v>-7836</v>
+        <v>1370</v>
       </c>
       <c r="AB73" t="n">
         <v>-48</v>
       </c>
       <c r="AC73" t="n">
-        <v>-211</v>
+        <v>-1057</v>
       </c>
       <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>-357</v>
-      </c>
+        <v>-11119</v>
+      </c>
+      <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="n">
-        <v>-4792</v>
+        <v>-1422</v>
       </c>
       <c r="AG73" t="n">
-        <v>-1422</v>
+        <v>-5231</v>
       </c>
       <c r="AH73" t="n">
-        <v>0</v>
+        <v>-2797</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>-4216</v>
       </c>
       <c r="AJ73" t="n">
-        <v>4775</v>
+        <v>-1004</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="AL73" t="n">
-        <v>460</v>
-      </c>
-      <c r="AM73" t="n">
         <v>-1757</v>
       </c>
     </row>
@@ -9262,11 +8959,11 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>230</v>
+        <v>4983</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
-        <v>-678</v>
+        <v>4547</v>
       </c>
       <c r="F74" t="n">
         <v>13186</v>
@@ -9281,93 +8978,88 @@
         <v>13983</v>
       </c>
       <c r="J74" t="n">
-        <v>-519</v>
+        <v>20314</v>
       </c>
       <c r="K74" t="n">
-        <v>-639</v>
+        <v>18934</v>
       </c>
       <c r="L74" t="n">
         <v>13809</v>
       </c>
       <c r="M74" t="n">
-        <v>-454</v>
+        <v>14881</v>
       </c>
       <c r="N74" t="n">
-        <v>-1123</v>
+        <v>22798</v>
       </c>
       <c r="O74" t="n">
-        <v>-1010</v>
+        <v>27856</v>
       </c>
       <c r="P74" t="n">
         <v>-38444</v>
       </c>
       <c r="Q74" t="n">
-        <v>-1285</v>
+        <v>4950</v>
       </c>
       <c r="R74" t="n">
-        <v>-1214</v>
+        <v>18646</v>
       </c>
       <c r="S74" t="n">
-        <v>-1621</v>
+        <v>44064</v>
       </c>
       <c r="T74" t="n">
-        <v>-2748</v>
+        <v>24949</v>
       </c>
       <c r="U74" t="n">
-        <v>-1696</v>
+        <v>31837</v>
       </c>
       <c r="V74" t="n">
-        <v>-1159</v>
+        <v>13054</v>
       </c>
       <c r="W74" t="n">
-        <v>483</v>
+        <v>7069</v>
       </c>
       <c r="X74" t="n">
-        <v>-2477</v>
+        <v>17038</v>
       </c>
       <c r="Y74" t="n">
-        <v>-1566</v>
+        <v>7971</v>
       </c>
       <c r="Z74" t="n">
-        <v>-1763</v>
+        <v>16728</v>
       </c>
       <c r="AA74" t="n">
-        <v>-5300</v>
+        <v>16625</v>
       </c>
       <c r="AB74" t="n">
         <v>5998</v>
       </c>
       <c r="AC74" t="n">
-        <v>-1756</v>
+        <v>4748</v>
       </c>
       <c r="AD74" t="n">
-        <v>-1481</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>-2413</v>
-      </c>
+        <v>6340</v>
+      </c>
+      <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="n">
-        <v>-2665</v>
+        <v>-10164</v>
       </c>
       <c r="AG74" t="n">
-        <v>-10164</v>
+        <v>-1578</v>
       </c>
       <c r="AH74" t="n">
-        <v>-1532</v>
+        <v>-4199</v>
       </c>
       <c r="AI74" t="n">
-        <v>1</v>
+        <v>-22222</v>
       </c>
       <c r="AJ74" t="n">
-        <v>6768</v>
+        <v>4071</v>
       </c>
       <c r="AK74" t="n">
-        <v>-202</v>
+        <v>5836</v>
       </c>
       <c r="AL74" t="n">
-        <v>5836</v>
-      </c>
-      <c r="AM74" t="n">
         <v>977</v>
       </c>
     </row>
@@ -9379,7 +9071,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
@@ -9398,93 +9090,88 @@
         <v>-1883</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>-8041</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-8082</v>
       </c>
       <c r="L75" t="n">
         <v>-1267</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>-3375</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>-7580</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>-9257</v>
       </c>
       <c r="P75" t="n">
         <v>-3673</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>-2978</v>
       </c>
       <c r="R75" t="n">
-        <v>13</v>
+        <v>-2421</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>-2523</v>
       </c>
       <c r="T75" t="n">
-        <v>492</v>
+        <v>-14717</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>-10120</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>-9069</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>-2602</v>
       </c>
       <c r="X75" t="n">
-        <v>1924</v>
+        <v>-3190</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>-2891</v>
       </c>
       <c r="Z75" t="n">
-        <v>0</v>
+        <v>-662</v>
       </c>
       <c r="AA75" t="n">
-        <v>832</v>
+        <v>-11017</v>
       </c>
       <c r="AB75" t="n">
         <v>6190</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>-607</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>28</v>
-      </c>
+        <v>-3451</v>
+      </c>
+      <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="n">
-        <v>9</v>
+        <v>-2080</v>
       </c>
       <c r="AG75" t="n">
-        <v>-2080</v>
+        <v>-1556</v>
       </c>
       <c r="AH75" t="n">
-        <v>10</v>
+        <v>-2043</v>
       </c>
       <c r="AI75" t="n">
-        <v>9</v>
+        <v>-299</v>
       </c>
       <c r="AJ75" t="n">
-        <v>-19</v>
+        <v>-2748</v>
       </c>
       <c r="AK75" t="n">
-        <v>9</v>
+        <v>-4177</v>
       </c>
       <c r="AL75" t="n">
-        <v>-4177</v>
-      </c>
-      <c r="AM75" t="n">
         <v>-3020</v>
       </c>
     </row>
@@ -9500,7 +9187,7 @@
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>5308</v>
       </c>
       <c r="F76" t="n">
         <v>-3330</v>
@@ -9515,93 +9202,88 @@
         <v>-3479</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1506</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="L76" t="n">
         <v>-3151</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>-612</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1306</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>3218</v>
       </c>
       <c r="P76" t="n">
         <v>-3575</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>-1709</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>2408</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>4391</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>3045</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>-1172</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1404</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="Y76" t="n">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="Z76" t="n">
-        <v>0</v>
+        <v>-1984</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB76" t="n">
         <v>-1545</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
+        <v>-4153</v>
+      </c>
+      <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="n">
-        <v>0</v>
+        <v>-87</v>
       </c>
       <c r="AG76" t="n">
-        <v>-87</v>
+        <v>688</v>
       </c>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>3134</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>6458</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0</v>
+        <v>-981</v>
       </c>
       <c r="AK76" t="n">
-        <v>0</v>
+        <v>-1742</v>
       </c>
       <c r="AL76" t="n">
-        <v>-1742</v>
-      </c>
-      <c r="AM76" t="n">
         <v>1070</v>
       </c>
     </row>
@@ -9694,9 +9376,7 @@
       <c r="AD77" t="n">
         <v>0</v>
       </c>
-      <c r="AE77" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="n">
         <v>0</v>
       </c>
@@ -9716,9 +9396,6 @@
         <v>0</v>
       </c>
       <c r="AL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9809,11 +9486,9 @@
         <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
+        <v>1867</v>
+      </c>
+      <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="n">
         <v>0</v>
       </c>
@@ -9833,9 +9508,6 @@
         <v>0</v>
       </c>
       <c r="AL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9893,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T79" t="n">
         <v>0</v>
@@ -9902,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -9914,10 +9586,10 @@
         <v>0</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB79" t="n">
         <v>1</v>
@@ -9926,16 +9598,14 @@
         <v>0</v>
       </c>
       <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="n">
         <v>0</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH79" t="n">
         <v>0</v>
@@ -9944,15 +9614,12 @@
         <v>0</v>
       </c>
       <c r="AJ79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK79" t="n">
         <v>0</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9964,11 +9631,11 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>234</v>
+        <v>4983</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>-678</v>
+        <v>9855</v>
       </c>
       <c r="F80" t="n">
         <v>9856</v>
@@ -9983,93 +9650,88 @@
         <v>8621</v>
       </c>
       <c r="J80" t="n">
-        <v>-519</v>
+        <v>13779</v>
       </c>
       <c r="K80" t="n">
-        <v>-639</v>
+        <v>11716</v>
       </c>
       <c r="L80" t="n">
         <v>9391</v>
       </c>
       <c r="M80" t="n">
-        <v>-454</v>
+        <v>10894</v>
       </c>
       <c r="N80" t="n">
-        <v>-1123</v>
+        <v>16524</v>
       </c>
       <c r="O80" t="n">
-        <v>-1010</v>
+        <v>21817</v>
       </c>
       <c r="P80" t="n">
         <v>-45688</v>
       </c>
       <c r="Q80" t="n">
-        <v>-1285</v>
+        <v>263</v>
       </c>
       <c r="R80" t="n">
-        <v>-1201</v>
+        <v>18633</v>
       </c>
       <c r="S80" t="n">
-        <v>-1620</v>
+        <v>45930</v>
       </c>
       <c r="T80" t="n">
-        <v>-1321</v>
+        <v>13277</v>
       </c>
       <c r="U80" t="n">
-        <v>-1696</v>
+        <v>20545</v>
       </c>
       <c r="V80" t="n">
-        <v>-1159</v>
+        <v>4200</v>
       </c>
       <c r="W80" t="n">
-        <v>483</v>
+        <v>5871</v>
       </c>
       <c r="X80" t="n">
-        <v>128</v>
+        <v>13791</v>
       </c>
       <c r="Y80" t="n">
-        <v>-1566</v>
+        <v>4625</v>
       </c>
       <c r="Z80" t="n">
-        <v>-1763</v>
+        <v>14081</v>
       </c>
       <c r="AA80" t="n">
-        <v>-4468</v>
+        <v>5682</v>
       </c>
       <c r="AB80" t="n">
         <v>10644</v>
       </c>
       <c r="AC80" t="n">
-        <v>-1756</v>
+        <v>5096</v>
       </c>
       <c r="AD80" t="n">
-        <v>-1481</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>-2385</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="n">
-        <v>-2656</v>
+        <v>-12331</v>
       </c>
       <c r="AG80" t="n">
-        <v>-12331</v>
+        <v>-2447</v>
       </c>
       <c r="AH80" t="n">
-        <v>-1522</v>
+        <v>-3108</v>
       </c>
       <c r="AI80" t="n">
-        <v>10</v>
+        <v>-16063</v>
       </c>
       <c r="AJ80" t="n">
-        <v>6749</v>
+        <v>341</v>
       </c>
       <c r="AK80" t="n">
-        <v>-193</v>
+        <v>-83</v>
       </c>
       <c r="AL80" t="n">
-        <v>-83</v>
-      </c>
-      <c r="AM80" t="n">
         <v>-973</v>
       </c>
     </row>
